--- a/submission_forms/nebraska_at_kearney_university/Lighting_Tracking_Sheets_UNK_After.xlsx
+++ b/submission_forms/nebraska_at_kearney_university/Lighting_Tracking_Sheets_UNK_After.xlsx
@@ -15,15 +15,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>Please submit by:</t>
   </si>
@@ -111,6 +113,9 @@
   </si>
   <si>
     <t>ETC Follow Time of Next Cue (optional if needed)</t>
+  </si>
+  <si>
+    <t>Ben and Brianna assuming blank cells are 0%</t>
   </si>
   <si>
     <t>3. LASTLY, fill in full stage groups used in cue [0-100]  Levels will track through cues until change is specified. Specify colour for LEDs.</t>
@@ -564,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -812,13 +817,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top/>
@@ -916,7 +914,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1173,23 +1171,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,31 +1215,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1257,6 +1251,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1273,6 +1283,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1281,24 +1319,48 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1306,90 +1368,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1409,15 +1403,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1433,19 +1427,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1457,7 +1451,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1528,15 +1522,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>780480</xdr:colOff>
+      <xdr:colOff>807120</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1549,8 +1543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1217880" y="21597840"/>
-          <a:ext cx="651960" cy="290520"/>
+          <a:off x="1244880" y="21588840"/>
+          <a:ext cx="651600" cy="290160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,8 +1566,10 @@
   </sheetPr>
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1410" topLeftCell="A18" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2016,18 +2012,20 @@
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
+      <c r="D19" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="3"/>
     </row>
@@ -2035,7 +2033,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
       <c r="C20" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -2055,43 +2053,43 @@
     <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="68" t="s">
+      <c r="C21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="70" t="n">
+      <c r="E21" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="71" t="n">
+      <c r="G21" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="71" t="n">
+      <c r="H21" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="71" t="n">
+      <c r="I21" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="71" t="n">
+      <c r="J21" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="K21" s="70" t="n">
+      <c r="K21" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="L21" s="70" t="n">
+      <c r="L21" s="69" t="n">
         <v>7</v>
       </c>
-      <c r="M21" s="71" t="n">
+      <c r="M21" s="70" t="n">
         <v>8</v>
       </c>
-      <c r="N21" s="71" t="n">
+      <c r="N21" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="O21" s="71" t="n">
+      <c r="O21" s="70" t="n">
         <v>10</v>
       </c>
       <c r="P21" s="54"/>
@@ -2100,421 +2098,421 @@
     <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="72" t="n">
+      <c r="C22" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="74" t="s">
+      <c r="D22" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
+      <c r="E22" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="72" t="n">
+      <c r="C23" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="72" t="n">
+      <c r="C24" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="D24" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="72" t="n">
+      <c r="C25" s="71" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="D25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="73" t="s">
+      <c r="C26" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75" t="s">
+      <c r="D26" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="E26" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="75" t="s">
+      <c r="I26" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="J26" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
+      <c r="K26" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="72" t="n">
+      <c r="C27" s="71" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="75" t="n">
+      <c r="D27" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="74" t="n">
         <v>25</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75" t="n">
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74" t="n">
         <v>25</v>
       </c>
-      <c r="O27" s="75"/>
+      <c r="O27" s="74"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="72" t="n">
+      <c r="C28" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
+      <c r="D28" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="72" t="n">
+      <c r="C29" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
+      <c r="D29" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="72" t="n">
+      <c r="C30" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="D30" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
+      <c r="D30" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="72" t="n">
+      <c r="C31" s="71" t="n">
         <v>14</v>
       </c>
-      <c r="D31" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75" t="n">
+      <c r="D31" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75" t="n">
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="M31" s="75" t="n">
+      <c r="M31" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="72" t="n">
+      <c r="C32" s="71" t="n">
         <v>15</v>
       </c>
-      <c r="D32" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75" t="n">
+      <c r="D32" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="J32" s="75" t="n">
+      <c r="J32" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="K32" s="75" t="n">
+      <c r="K32" s="74" t="n">
         <v>50</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="72" t="n">
+      <c r="C33" s="71" t="n">
         <v>16</v>
       </c>
-      <c r="D33" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="74" t="s">
+      <c r="D33" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
+      <c r="E33" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="72" t="n">
+      <c r="C34" s="71" t="n">
         <v>40</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75" t="n">
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="I34" s="75" t="n">
+      <c r="I34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="J34" s="75" t="n">
+      <c r="J34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="K34" s="75" t="n">
+      <c r="K34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="L34" s="75" t="n">
+      <c r="L34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="M34" s="75" t="n">
+      <c r="M34" s="74" t="n">
         <v>100</v>
       </c>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="75" t="s">
+      <c r="C35" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="75" t="s">
+      <c r="I35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="75" t="s">
+      <c r="J35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="K35" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="3"/>
     </row>
@@ -2522,7 +2520,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="8"/>
       <c r="C37" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -2542,43 +2540,43 @@
     <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
-      <c r="C38" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="82" t="s">
+      <c r="C38" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="83" t="n">
+      <c r="E38" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="84" t="n">
+      <c r="G38" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="H38" s="84" t="n">
+      <c r="H38" s="83" t="n">
         <v>3</v>
       </c>
-      <c r="I38" s="84" t="n">
+      <c r="I38" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="84" t="n">
+      <c r="J38" s="83" t="n">
         <v>5</v>
       </c>
-      <c r="K38" s="83" t="n">
+      <c r="K38" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="L38" s="83" t="n">
+      <c r="L38" s="82" t="n">
         <v>7</v>
       </c>
-      <c r="M38" s="84" t="n">
+      <c r="M38" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="N38" s="84" t="n">
+      <c r="N38" s="83" t="n">
         <v>9</v>
       </c>
-      <c r="O38" s="84" t="n">
+      <c r="O38" s="83" t="n">
         <v>10</v>
       </c>
       <c r="P38" s="54"/>
@@ -2587,52 +2585,52 @@
     <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="85" t="n">
+      <c r="C39" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="87" t="s">
+      <c r="D39" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="88" t="str">
+      <c r="E39" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="87" t="str">
         <f aca="false">IF(F$22="","",F$22)</f>
         <v/>
       </c>
-      <c r="G39" s="88" t="str">
+      <c r="G39" s="87" t="str">
         <f aca="false">IF(G$22="","",G$22)</f>
         <v/>
       </c>
-      <c r="H39" s="88" t="str">
+      <c r="H39" s="87" t="str">
         <f aca="false">IF(H$22="","",H$22)</f>
         <v/>
       </c>
-      <c r="I39" s="88" t="str">
+      <c r="I39" s="87" t="str">
         <f aca="false">IF(I$22="","",I$22)</f>
         <v/>
       </c>
-      <c r="J39" s="88" t="str">
+      <c r="J39" s="87" t="str">
         <f aca="false">IF(J$22="","",J$22)</f>
         <v/>
       </c>
-      <c r="K39" s="88" t="str">
+      <c r="K39" s="87" t="str">
         <f aca="false">IF(K$22="","",K$22)</f>
         <v/>
       </c>
-      <c r="L39" s="88" t="str">
+      <c r="L39" s="87" t="str">
         <f aca="false">IF(L$22="","",L$22)</f>
         <v/>
       </c>
-      <c r="M39" s="88" t="str">
+      <c r="M39" s="87" t="str">
         <f aca="false">IF(M$22="","",M$22)</f>
         <v/>
       </c>
-      <c r="N39" s="88" t="str">
+      <c r="N39" s="87" t="str">
         <f aca="false">IF(N$22="","",N$22)</f>
         <v/>
       </c>
-      <c r="O39" s="88" t="str">
+      <c r="O39" s="87" t="str">
         <f aca="false">IF(O$22="","",O$22)</f>
         <v/>
       </c>
@@ -2642,70 +2640,70 @@
     <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="89" t="n">
+      <c r="C40" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="92" t="inlineStr">
+      <c r="D40" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="91" t="inlineStr">
         <f aca="false">IF(F$22="","",F$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G40" s="92" t="inlineStr">
+      <c r="G40" s="91" t="inlineStr">
         <f aca="false">IF(G$22="","",G$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H40" s="92" t="inlineStr">
+      <c r="H40" s="91" t="inlineStr">
         <f aca="false">IF(H$22="","",H$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I40" s="92" t="inlineStr">
+      <c r="I40" s="91" t="inlineStr">
         <f aca="false">IF(I$22="","",I$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J40" s="92" t="inlineStr">
+      <c r="J40" s="91" t="inlineStr">
         <f aca="false">IF(J$22="","",J$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K40" s="92" t="inlineStr">
+      <c r="K40" s="91" t="inlineStr">
         <f aca="false">IF(K$22="","",K$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L40" s="92" t="inlineStr">
+      <c r="L40" s="91" t="inlineStr">
         <f aca="false">IF(L$22="","",L$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M40" s="92" t="inlineStr">
+      <c r="M40" s="91" t="inlineStr">
         <f aca="false">IF(M$22="","",M$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N40" s="92" t="inlineStr">
+      <c r="N40" s="91" t="inlineStr">
         <f aca="false">IF(N$22="","",N$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O40" s="92" t="inlineStr">
+      <c r="O40" s="91" t="inlineStr">
         <f aca="false">IF(O$22="","",O$22)</f>
         <is>
           <t/>
@@ -2717,70 +2715,70 @@
     <row r="41" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="89" t="n">
+      <c r="C41" s="88" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="92" t="inlineStr">
+      <c r="D41" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="91" t="inlineStr">
         <f aca="false">IF(F$22="","",F$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G41" s="92" t="inlineStr">
+      <c r="G41" s="91" t="inlineStr">
         <f aca="false">IF(G$22="","",G$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H41" s="92" t="inlineStr">
+      <c r="H41" s="91" t="inlineStr">
         <f aca="false">IF(H$22="","",H$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I41" s="92" t="inlineStr">
+      <c r="I41" s="91" t="inlineStr">
         <f aca="false">IF(I$22="","",I$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J41" s="92" t="inlineStr">
+      <c r="J41" s="91" t="inlineStr">
         <f aca="false">IF(J$22="","",J$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K41" s="92" t="inlineStr">
+      <c r="K41" s="91" t="inlineStr">
         <f aca="false">IF(K$22="","",K$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L41" s="92" t="inlineStr">
+      <c r="L41" s="91" t="inlineStr">
         <f aca="false">IF(L$22="","",L$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M41" s="92" t="inlineStr">
+      <c r="M41" s="91" t="inlineStr">
         <f aca="false">IF(M$22="","",M$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N41" s="92" t="inlineStr">
+      <c r="N41" s="91" t="inlineStr">
         <f aca="false">IF(N$22="","",N$22)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O41" s="92" t="inlineStr">
+      <c r="O41" s="91" t="inlineStr">
         <f aca="false">IF(O$22="","",O$22)</f>
         <is>
           <t/>
@@ -2792,71 +2790,71 @@
     <row r="42" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="89" t="n">
+      <c r="C43" s="88" t="n">
         <v>11</v>
       </c>
-      <c r="D43" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="92" t="str">
+      <c r="D43" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="91" t="str">
         <f aca="false">IF(F$23="","",F$23)</f>
         <v/>
       </c>
-      <c r="G43" s="92" t="str">
+      <c r="G43" s="91" t="str">
         <f aca="false">IF(G$23="","",G$23)</f>
         <v/>
       </c>
-      <c r="H43" s="92" t="str">
+      <c r="H43" s="91" t="str">
         <f aca="false">IF(H$23="","",H$23)</f>
         <v/>
       </c>
-      <c r="I43" s="92" t="str">
+      <c r="I43" s="91" t="str">
         <f aca="false">IF(I$23="","",I$23)</f>
         <v/>
       </c>
-      <c r="J43" s="92" t="str">
+      <c r="J43" s="91" t="str">
         <f aca="false">IF(J$23="","",J$23)</f>
         <v/>
       </c>
-      <c r="K43" s="92" t="str">
+      <c r="K43" s="91" t="str">
         <f aca="false">IF(K$23="","",K$23)</f>
         <v/>
       </c>
-      <c r="L43" s="92" t="str">
+      <c r="L43" s="91" t="str">
         <f aca="false">IF(L$23="","",L$23)</f>
         <v/>
       </c>
-      <c r="M43" s="92" t="str">
+      <c r="M43" s="91" t="str">
         <f aca="false">IF(M$23="","",M$23)</f>
         <v/>
       </c>
-      <c r="N43" s="92" t="str">
+      <c r="N43" s="91" t="str">
         <f aca="false">IF(N$23="","",N$23)</f>
         <v/>
       </c>
-      <c r="O43" s="92" t="str">
+      <c r="O43" s="91" t="str">
         <f aca="false">IF(O$23="","",O$23)</f>
         <v/>
       </c>
@@ -2866,70 +2864,70 @@
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="89" t="n">
+      <c r="C44" s="88" t="n">
         <v>12</v>
       </c>
-      <c r="D44" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="92" t="inlineStr">
+      <c r="D44" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="91" t="inlineStr">
         <f aca="false">IF(F$23="","",F$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G44" s="92" t="inlineStr">
+      <c r="G44" s="91" t="inlineStr">
         <f aca="false">IF(G$23="","",G$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H44" s="92" t="inlineStr">
+      <c r="H44" s="91" t="inlineStr">
         <f aca="false">IF(H$23="","",H$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I44" s="92" t="inlineStr">
+      <c r="I44" s="91" t="inlineStr">
         <f aca="false">IF(I$23="","",I$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J44" s="92" t="inlineStr">
+      <c r="J44" s="91" t="inlineStr">
         <f aca="false">IF(J$23="","",J$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K44" s="92" t="inlineStr">
+      <c r="K44" s="91" t="inlineStr">
         <f aca="false">IF(K$23="","",K$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L44" s="92" t="inlineStr">
+      <c r="L44" s="91" t="inlineStr">
         <f aca="false">IF(L$23="","",L$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M44" s="92" t="inlineStr">
+      <c r="M44" s="91" t="inlineStr">
         <f aca="false">IF(M$23="","",M$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N44" s="92" t="inlineStr">
+      <c r="N44" s="91" t="inlineStr">
         <f aca="false">IF(N$23="","",N$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O44" s="92" t="inlineStr">
+      <c r="O44" s="91" t="inlineStr">
         <f aca="false">IF(O$23="","",O$23)</f>
         <is>
           <t/>
@@ -2941,70 +2939,70 @@
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="89" t="n">
+      <c r="C45" s="88" t="n">
         <v>13</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="92" t="inlineStr">
+      <c r="F45" s="91" t="inlineStr">
         <f aca="false">IF(F$23="","",F$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G45" s="92" t="inlineStr">
+      <c r="G45" s="91" t="inlineStr">
         <f aca="false">IF(G$23="","",G$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H45" s="92" t="inlineStr">
+      <c r="H45" s="91" t="inlineStr">
         <f aca="false">IF(H$23="","",H$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I45" s="92" t="inlineStr">
+      <c r="I45" s="91" t="inlineStr">
         <f aca="false">IF(I$23="","",I$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J45" s="92" t="inlineStr">
+      <c r="J45" s="91" t="inlineStr">
         <f aca="false">IF(J$23="","",J$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K45" s="92" t="inlineStr">
+      <c r="K45" s="91" t="inlineStr">
         <f aca="false">IF(K$23="","",K$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L45" s="92" t="inlineStr">
+      <c r="L45" s="91" t="inlineStr">
         <f aca="false">IF(L$23="","",L$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M45" s="92" t="inlineStr">
+      <c r="M45" s="91" t="inlineStr">
         <f aca="false">IF(M$23="","",M$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N45" s="92" t="inlineStr">
+      <c r="N45" s="91" t="inlineStr">
         <f aca="false">IF(N$23="","",N$23)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O45" s="92" t="inlineStr">
+      <c r="O45" s="91" t="inlineStr">
         <f aca="false">IF(O$23="","",O$23)</f>
         <is>
           <t/>
@@ -3016,71 +3014,71 @@
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="89" t="n">
+      <c r="C47" s="88" t="n">
         <v>21</v>
       </c>
-      <c r="D47" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="91" t="s">
+      <c r="D47" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="88" t="str">
+      <c r="E47" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="87" t="str">
         <f aca="false">IF(F$24="","",F$24)</f>
         <v/>
       </c>
-      <c r="G47" s="88" t="str">
+      <c r="G47" s="87" t="str">
         <f aca="false">IF(G$24="","",G$24)</f>
         <v/>
       </c>
-      <c r="H47" s="88" t="str">
+      <c r="H47" s="87" t="str">
         <f aca="false">IF(H$24="","",H$24)</f>
         <v/>
       </c>
-      <c r="I47" s="88" t="str">
+      <c r="I47" s="87" t="str">
         <f aca="false">IF(I$24="","",I$24)</f>
         <v/>
       </c>
-      <c r="J47" s="88" t="str">
+      <c r="J47" s="87" t="str">
         <f aca="false">IF(J$24="","",J$24)</f>
         <v/>
       </c>
-      <c r="K47" s="88" t="str">
+      <c r="K47" s="87" t="str">
         <f aca="false">IF(K$24="","",K$24)</f>
         <v/>
       </c>
-      <c r="L47" s="88" t="str">
+      <c r="L47" s="87" t="str">
         <f aca="false">IF(L$24="","",L$24)</f>
         <v/>
       </c>
-      <c r="M47" s="88" t="str">
+      <c r="M47" s="87" t="str">
         <f aca="false">IF(M$24="","",M$24)</f>
         <v/>
       </c>
-      <c r="N47" s="88" t="str">
+      <c r="N47" s="87" t="str">
         <f aca="false">IF(N$24="","",N$24)</f>
         <v/>
       </c>
-      <c r="O47" s="88" t="str">
+      <c r="O47" s="87" t="str">
         <f aca="false">IF(O$24="","",O$24)</f>
         <v/>
       </c>
@@ -3090,72 +3088,74 @@
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="89" t="n">
+      <c r="C48" s="88" t="n">
         <v>22</v>
       </c>
-      <c r="D48" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="92" t="inlineStr">
+      <c r="D48" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G48" s="92" t="inlineStr">
+      <c r="G48" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H48" s="92" t="inlineStr">
+      <c r="H48" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I48" s="92" t="inlineStr">
+      <c r="I48" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J48" s="92" t="inlineStr">
+      <c r="J48" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K48" s="92" t="inlineStr">
+      <c r="K48" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L48" s="92" t="inlineStr">
+      <c r="L48" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M48" s="92" t="inlineStr">
+      <c r="M48" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N48" s="92" t="inlineStr">
+      <c r="N48" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O48" s="92" t="str">
+      <c r="O48" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="3"/>
@@ -3163,72 +3163,74 @@
     <row r="49" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="89" t="n">
+      <c r="C49" s="88" t="n">
         <v>23</v>
       </c>
-      <c r="D49" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="92" t="inlineStr">
+      <c r="D49" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G49" s="92" t="inlineStr">
+      <c r="G49" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H49" s="92" t="inlineStr">
+      <c r="H49" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I49" s="92" t="inlineStr">
+      <c r="I49" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J49" s="92" t="inlineStr">
+      <c r="J49" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K49" s="92" t="inlineStr">
+      <c r="K49" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L49" s="92" t="inlineStr">
+      <c r="L49" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M49" s="92" t="inlineStr">
+      <c r="M49" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N49" s="92" t="inlineStr">
+      <c r="N49" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O49" s="92" t="str">
+      <c r="O49" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="43"/>
@@ -3236,72 +3238,74 @@
     <row r="50" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="89" t="n">
+      <c r="C50" s="88" t="n">
         <v>24</v>
       </c>
-      <c r="D50" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="92" t="inlineStr">
+      <c r="D50" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G50" s="92" t="inlineStr">
+      <c r="G50" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H50" s="92" t="inlineStr">
+      <c r="H50" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I50" s="92" t="inlineStr">
+      <c r="I50" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J50" s="92" t="inlineStr">
+      <c r="J50" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K50" s="92" t="inlineStr">
+      <c r="K50" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L50" s="92" t="inlineStr">
+      <c r="L50" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M50" s="92" t="inlineStr">
+      <c r="M50" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N50" s="92" t="inlineStr">
+      <c r="N50" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O50" s="92" t="str">
+      <c r="O50" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="3"/>
@@ -3309,72 +3313,74 @@
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="89" t="n">
+      <c r="C51" s="88" t="n">
         <v>25</v>
       </c>
-      <c r="D51" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="92" t="inlineStr">
+      <c r="D51" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G51" s="92" t="inlineStr">
+      <c r="G51" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H51" s="92" t="inlineStr">
+      <c r="H51" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I51" s="92" t="inlineStr">
+      <c r="I51" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J51" s="92" t="inlineStr">
+      <c r="J51" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K51" s="92" t="inlineStr">
+      <c r="K51" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L51" s="92" t="inlineStr">
+      <c r="L51" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M51" s="92" t="inlineStr">
+      <c r="M51" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N51" s="92" t="inlineStr">
+      <c r="N51" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O51" s="92" t="str">
+      <c r="O51" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="3"/>
@@ -3382,72 +3388,74 @@
     <row r="52" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="89" t="n">
+      <c r="C52" s="88" t="n">
         <v>26</v>
       </c>
-      <c r="D52" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="92" t="inlineStr">
+      <c r="D52" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G52" s="92" t="inlineStr">
+      <c r="G52" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H52" s="92" t="inlineStr">
+      <c r="H52" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I52" s="92" t="inlineStr">
+      <c r="I52" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J52" s="92" t="inlineStr">
+      <c r="J52" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K52" s="92" t="inlineStr">
+      <c r="K52" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L52" s="92" t="inlineStr">
+      <c r="L52" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M52" s="92" t="inlineStr">
+      <c r="M52" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N52" s="92" t="inlineStr">
+      <c r="N52" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O52" s="92" t="str">
+      <c r="O52" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P52" s="14"/>
       <c r="Q52" s="3"/>
@@ -3455,72 +3463,74 @@
     <row r="53" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="89" t="n">
+      <c r="C53" s="88" t="n">
         <v>27</v>
       </c>
-      <c r="D53" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="92" t="inlineStr">
+      <c r="D53" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G53" s="92" t="inlineStr">
+      <c r="G53" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H53" s="92" t="inlineStr">
+      <c r="H53" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I53" s="92" t="inlineStr">
+      <c r="I53" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J53" s="92" t="inlineStr">
+      <c r="J53" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K53" s="92" t="inlineStr">
+      <c r="K53" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L53" s="92" t="inlineStr">
+      <c r="L53" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M53" s="92" t="inlineStr">
+      <c r="M53" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N53" s="92" t="inlineStr">
+      <c r="N53" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O53" s="92" t="str">
+      <c r="O53" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="3"/>
@@ -3528,63 +3538,65 @@
     <row r="54" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="89" t="n">
+      <c r="C54" s="88" t="n">
         <v>28</v>
       </c>
-      <c r="D54" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="92" t="inlineStr">
+      <c r="D54" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G54" s="92" t="inlineStr">
+      <c r="G54" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H54" s="92" t="n">
+      <c r="H54" s="91" t="n">
         <v>50</v>
       </c>
-      <c r="I54" s="92" t="inlineStr">
+      <c r="I54" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J54" s="92" t="n">
+      <c r="J54" s="91" t="n">
         <v>50</v>
       </c>
-      <c r="K54" s="92" t="inlineStr">
+      <c r="K54" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L54" s="92" t="inlineStr">
+      <c r="L54" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M54" s="92" t="n">
+      <c r="M54" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="N54" s="92" t="inlineStr">
+      <c r="N54" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O54" s="92" t="str">
+      <c r="O54" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P54" s="14"/>
       <c r="Q54" s="43"/>
@@ -3592,66 +3604,68 @@
     <row r="55" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="89" t="n">
+      <c r="C55" s="88" t="n">
         <v>29</v>
       </c>
-      <c r="D55" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="92" t="inlineStr">
+      <c r="D55" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G55" s="92" t="inlineStr">
+      <c r="G55" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H55" s="92" t="str">
+      <c r="H55" s="91" t="str">
         <f aca="false">IF(H$24="","",H$24)</f>
         <v/>
       </c>
-      <c r="I55" s="92" t="inlineStr">
+      <c r="I55" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J55" s="92" t="str">
+      <c r="J55" s="91" t="str">
         <f aca="false">IF(J$24="","",J$24)</f>
         <v/>
       </c>
-      <c r="K55" s="92" t="inlineStr">
+      <c r="K55" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L55" s="92" t="inlineStr">
+      <c r="L55" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M55" s="92" t="str">
+      <c r="M55" s="91" t="str">
         <f aca="false">IF(M$24="","",M$24)</f>
         <v/>
       </c>
-      <c r="N55" s="92" t="inlineStr">
+      <c r="N55" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O55" s="92" t="str">
+      <c r="O55" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P55" s="14"/>
       <c r="Q55" s="3"/>
@@ -3659,72 +3673,74 @@
     <row r="56" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="89" t="n">
+      <c r="C56" s="88" t="n">
         <v>30</v>
       </c>
-      <c r="D56" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="92" t="inlineStr">
+      <c r="D56" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G56" s="92" t="inlineStr">
+      <c r="G56" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H56" s="92" t="inlineStr">
+      <c r="H56" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I56" s="92" t="inlineStr">
+      <c r="I56" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J56" s="92" t="inlineStr">
+      <c r="J56" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K56" s="92" t="inlineStr">
+      <c r="K56" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L56" s="92" t="inlineStr">
+      <c r="L56" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M56" s="92" t="inlineStr">
+      <c r="M56" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N56" s="92" t="inlineStr">
+      <c r="N56" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O56" s="92" t="str">
+      <c r="O56" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="3"/>
@@ -3732,72 +3748,74 @@
     <row r="57" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="89" t="n">
+      <c r="C57" s="88" t="n">
         <v>31</v>
       </c>
-      <c r="D57" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="92" t="inlineStr">
+      <c r="D57" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G57" s="92" t="inlineStr">
+      <c r="G57" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H57" s="92" t="inlineStr">
+      <c r="H57" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I57" s="92" t="inlineStr">
+      <c r="I57" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J57" s="92" t="inlineStr">
+      <c r="J57" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K57" s="92" t="inlineStr">
+      <c r="K57" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L57" s="92" t="inlineStr">
+      <c r="L57" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M57" s="92" t="inlineStr">
+      <c r="M57" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N57" s="92" t="inlineStr">
+      <c r="N57" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O57" s="92" t="str">
+      <c r="O57" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="3"/>
@@ -3805,72 +3823,74 @@
     <row r="58" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="89" t="n">
+      <c r="C58" s="88" t="n">
         <v>32</v>
       </c>
-      <c r="D58" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="92" t="inlineStr">
+      <c r="D58" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G58" s="92" t="inlineStr">
+      <c r="G58" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H58" s="92" t="inlineStr">
+      <c r="H58" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I58" s="92" t="inlineStr">
+      <c r="I58" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J58" s="92" t="inlineStr">
+      <c r="J58" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K58" s="92" t="inlineStr">
+      <c r="K58" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L58" s="92" t="inlineStr">
+      <c r="L58" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M58" s="92" t="inlineStr">
+      <c r="M58" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N58" s="92" t="inlineStr">
+      <c r="N58" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O58" s="92" t="str">
+      <c r="O58" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="43"/>
@@ -3878,72 +3898,74 @@
     <row r="59" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="89" t="n">
+      <c r="C59" s="88" t="n">
         <v>33</v>
       </c>
-      <c r="D59" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="92" t="inlineStr">
+      <c r="D59" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G59" s="92" t="inlineStr">
+      <c r="G59" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H59" s="92" t="inlineStr">
+      <c r="H59" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I59" s="92" t="inlineStr">
+      <c r="I59" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J59" s="92" t="inlineStr">
+      <c r="J59" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K59" s="92" t="inlineStr">
+      <c r="K59" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L59" s="92" t="inlineStr">
+      <c r="L59" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M59" s="92" t="inlineStr">
+      <c r="M59" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N59" s="92" t="inlineStr">
+      <c r="N59" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O59" s="92" t="str">
+      <c r="O59" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="3"/>
@@ -3951,72 +3973,74 @@
     <row r="60" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="89" t="n">
+      <c r="C60" s="88" t="n">
         <v>34</v>
       </c>
-      <c r="D60" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="92" t="inlineStr">
+      <c r="D60" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G60" s="92" t="inlineStr">
+      <c r="G60" s="91" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H60" s="92" t="inlineStr">
+      <c r="H60" s="91" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I60" s="92" t="inlineStr">
+      <c r="I60" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J60" s="92" t="inlineStr">
+      <c r="J60" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K60" s="92" t="inlineStr">
+      <c r="K60" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L60" s="92" t="inlineStr">
+      <c r="L60" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M60" s="92" t="inlineStr">
+      <c r="M60" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N60" s="92" t="inlineStr">
+      <c r="N60" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O60" s="92" t="str">
+      <c r="O60" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="3"/>
@@ -4024,64 +4048,66 @@
     <row r="61" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="89" t="n">
+      <c r="C61" s="88" t="n">
         <v>35</v>
       </c>
-      <c r="D61" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="92" t="inlineStr">
+      <c r="D61" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="91" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G61" s="92" t="n">
+      <c r="G61" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92" t="inlineStr">
+      <c r="H61" s="91"/>
+      <c r="I61" s="91" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J61" s="92" t="inlineStr">
+      <c r="J61" s="91" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K61" s="92" t="inlineStr">
+      <c r="K61" s="91" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L61" s="92" t="inlineStr">
+      <c r="L61" s="91" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M61" s="92" t="inlineStr">
+      <c r="M61" s="91" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N61" s="92" t="inlineStr">
+      <c r="N61" s="91" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O61" s="92" t="str">
+      <c r="O61" s="91" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="3"/>
@@ -4089,71 +4115,71 @@
     <row r="62" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="98"/>
-      <c r="O62" s="98"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="97"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="89" t="n">
+      <c r="C63" s="88" t="n">
         <v>41</v>
       </c>
-      <c r="D63" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="91" t="s">
+      <c r="D63" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="92" t="str">
+      <c r="E63" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="91" t="str">
         <f aca="false">IF(F$31="","",F$31)</f>
         <v/>
       </c>
-      <c r="G63" s="92" t="str">
+      <c r="G63" s="91" t="str">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v/>
       </c>
-      <c r="H63" s="92" t="n">
+      <c r="H63" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I63" s="92" t="str">
+      <c r="I63" s="91" t="str">
         <f aca="false">IF(I$31="","",I$31)</f>
         <v/>
       </c>
-      <c r="J63" s="92" t="str">
+      <c r="J63" s="91" t="str">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v/>
       </c>
-      <c r="K63" s="92" t="str">
+      <c r="K63" s="91" t="str">
         <f aca="false">IF(K$31="","",K$31)</f>
         <v/>
       </c>
-      <c r="L63" s="92" t="n">
+      <c r="L63" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M63" s="92" t="n">
+      <c r="M63" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N63" s="92" t="str">
+      <c r="N63" s="91" t="str">
         <f aca="false">IF(N$31="","",N$31)</f>
         <v/>
       </c>
-      <c r="O63" s="92" t="str">
+      <c r="O63" s="91" t="str">
         <f aca="false">IF(O$31="","",O$31)</f>
         <v/>
       </c>
@@ -4163,66 +4189,68 @@
     <row r="64" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="89" t="n">
+      <c r="C64" s="88" t="n">
         <v>42</v>
       </c>
-      <c r="D64" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="92" t="inlineStr">
+      <c r="D64" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="91" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G64" s="92" t="inlineStr">
+      <c r="G64" s="91" t="inlineStr">
         <f aca="false">IF(G$31="","",G$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H64" s="92" t="n">
+      <c r="H64" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I64" s="92" t="inlineStr">
+      <c r="I64" s="91" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J64" s="92" t="inlineStr">
+      <c r="J64" s="91" t="inlineStr">
         <f aca="false">IF(J$31="","",J$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K64" s="92" t="inlineStr">
+      <c r="K64" s="91" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L64" s="92" t="n">
+      <c r="L64" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M64" s="92" t="n">
+      <c r="M64" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N64" s="92" t="inlineStr">
+      <c r="N64" s="91" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O64" s="92" t="str">
+      <c r="O64" s="91" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="3"/>
@@ -4230,66 +4258,68 @@
     <row r="65" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="89" t="n">
+      <c r="C65" s="88" t="n">
         <v>43</v>
       </c>
-      <c r="D65" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="92" t="inlineStr">
+      <c r="D65" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="91" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G65" s="92" t="inlineStr">
+      <c r="G65" s="91" t="inlineStr">
         <f aca="false">IF(G$31="","",G$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H65" s="92" t="n">
+      <c r="H65" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I65" s="92" t="inlineStr">
+      <c r="I65" s="91" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J65" s="92" t="inlineStr">
+      <c r="J65" s="91" t="inlineStr">
         <f aca="false">IF(J$31="","",J$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K65" s="92" t="inlineStr">
+      <c r="K65" s="91" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L65" s="92" t="n">
+      <c r="L65" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M65" s="92" t="n">
+      <c r="M65" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N65" s="92" t="inlineStr">
+      <c r="N65" s="91" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O65" s="92" t="str">
+      <c r="O65" s="91" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P65" s="14"/>
       <c r="Q65" s="3"/>
@@ -4297,66 +4327,68 @@
     <row r="66" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="89" t="n">
+      <c r="C66" s="88" t="n">
         <v>44</v>
       </c>
-      <c r="D66" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="92" t="inlineStr">
+      <c r="D66" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="91" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G66" s="92" t="inlineStr">
+      <c r="G66" s="91" t="inlineStr">
         <f aca="false">IF(G$31="","",G$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H66" s="92" t="n">
+      <c r="H66" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I66" s="92" t="inlineStr">
+      <c r="I66" s="91" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J66" s="92" t="inlineStr">
+      <c r="J66" s="91" t="inlineStr">
         <f aca="false">IF(J$31="","",J$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K66" s="92" t="inlineStr">
+      <c r="K66" s="91" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L66" s="92" t="n">
+      <c r="L66" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M66" s="92" t="n">
+      <c r="M66" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N66" s="92" t="inlineStr">
+      <c r="N66" s="91" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O66" s="92" t="str">
+      <c r="O66" s="91" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="3"/>
@@ -4364,66 +4396,68 @@
     <row r="67" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="89" t="n">
+      <c r="C67" s="88" t="n">
         <v>45</v>
       </c>
-      <c r="D67" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="92" t="inlineStr">
+      <c r="D67" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="91" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G67" s="92" t="inlineStr">
+      <c r="G67" s="91" t="inlineStr">
         <f aca="false">IF(G$31="","",G$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H67" s="92" t="n">
+      <c r="H67" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I67" s="92" t="inlineStr">
+      <c r="I67" s="91" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J67" s="92" t="inlineStr">
+      <c r="J67" s="91" t="inlineStr">
         <f aca="false">IF(J$31="","",J$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K67" s="92" t="inlineStr">
+      <c r="K67" s="91" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L67" s="92" t="n">
+      <c r="L67" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M67" s="92" t="n">
+      <c r="M67" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N67" s="92" t="inlineStr">
+      <c r="N67" s="91" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O67" s="92" t="str">
+      <c r="O67" s="91" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P67" s="14"/>
       <c r="Q67" s="3"/>
@@ -4431,66 +4465,68 @@
     <row r="68" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="89" t="n">
+      <c r="C68" s="88" t="n">
         <v>46</v>
       </c>
-      <c r="D68" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="92" t="inlineStr">
+      <c r="D68" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="91" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G68" s="92" t="inlineStr">
+      <c r="G68" s="91" t="inlineStr">
         <f aca="false">IF(G$31="","",G$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H68" s="92" t="n">
+      <c r="H68" s="91" t="n">
         <f aca="false">IF(H$31="","",H$31)</f>
         <v>50</v>
       </c>
-      <c r="I68" s="92" t="inlineStr">
+      <c r="I68" s="91" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J68" s="92" t="inlineStr">
+      <c r="J68" s="91" t="inlineStr">
         <f aca="false">IF(J$31="","",J$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K68" s="92" t="inlineStr">
+      <c r="K68" s="91" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L68" s="92" t="n">
+      <c r="L68" s="91" t="n">
         <f aca="false">IF(L$31="","",L$31)</f>
         <v>50</v>
       </c>
-      <c r="M68" s="92" t="n">
+      <c r="M68" s="91" t="n">
         <f aca="false">IF(M$31="","",M$31)</f>
         <v>50</v>
       </c>
-      <c r="N68" s="92" t="inlineStr">
+      <c r="N68" s="91" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O68" s="92" t="str">
+      <c r="O68" s="91" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="3"/>
@@ -4498,71 +4534,71 @@
     <row r="69" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="98"/>
-      <c r="J69" s="99"/>
-      <c r="K69" s="99"/>
-      <c r="L69" s="97"/>
-      <c r="M69" s="97"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="98"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="97"/>
       <c r="P69" s="14"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="89" t="n">
+      <c r="C70" s="88" t="n">
         <v>47</v>
       </c>
-      <c r="D70" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="91" t="s">
+      <c r="D70" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="92" t="str">
+      <c r="E70" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="91" t="str">
         <f aca="false">IF(F$32="","",F$32)</f>
         <v/>
       </c>
-      <c r="G70" s="92" t="str">
+      <c r="G70" s="91" t="str">
         <f aca="false">IF(G$32="","",G$32)</f>
         <v/>
       </c>
-      <c r="H70" s="92" t="str">
+      <c r="H70" s="91" t="str">
         <f aca="false">IF(H$32="","",H$32)</f>
         <v/>
       </c>
-      <c r="I70" s="92" t="n">
+      <c r="I70" s="91" t="n">
         <f aca="false">IF(I$32="","",I$32)</f>
         <v>50</v>
       </c>
-      <c r="J70" s="92" t="n">
+      <c r="J70" s="91" t="n">
         <f aca="false">IF(J$32="","",J$32)</f>
         <v>50</v>
       </c>
-      <c r="K70" s="92" t="n">
+      <c r="K70" s="91" t="n">
         <f aca="false">IF(K$32="","",K$32)</f>
         <v>50</v>
       </c>
-      <c r="L70" s="92" t="str">
+      <c r="L70" s="91" t="str">
         <f aca="false">IF(L$32="","",L$32)</f>
         <v/>
       </c>
-      <c r="M70" s="92" t="str">
+      <c r="M70" s="91" t="str">
         <f aca="false">IF(M$32="","",M$32)</f>
         <v/>
       </c>
-      <c r="N70" s="92" t="str">
+      <c r="N70" s="91" t="str">
         <f aca="false">IF(N$32="","",N$32)</f>
         <v/>
       </c>
-      <c r="O70" s="92" t="str">
+      <c r="O70" s="91" t="str">
         <f aca="false">IF(O$32="","",O$32)</f>
         <v/>
       </c>
@@ -4572,66 +4608,68 @@
     <row r="71" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="89" t="n">
+      <c r="C71" s="88" t="n">
         <v>48</v>
       </c>
-      <c r="D71" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="92" t="inlineStr">
+      <c r="D71" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="91" t="inlineStr">
         <f aca="false">IF(F$32="","",F$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G71" s="92" t="inlineStr">
+      <c r="G71" s="91" t="inlineStr">
         <f aca="false">IF(G$32="","",G$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H71" s="92" t="inlineStr">
+      <c r="H71" s="91" t="inlineStr">
         <f aca="false">IF(H$32="","",H$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I71" s="92" t="n">
+      <c r="I71" s="91" t="n">
         <f aca="false">IF(I$32="","",I$32)</f>
         <v>50</v>
       </c>
-      <c r="J71" s="92" t="n">
+      <c r="J71" s="91" t="n">
         <f aca="false">IF(J$32="","",J$32)</f>
         <v>50</v>
       </c>
-      <c r="K71" s="92" t="n">
+      <c r="K71" s="91" t="n">
         <f aca="false">IF(K$32="","",K$32)</f>
         <v>50</v>
       </c>
-      <c r="L71" s="92" t="inlineStr">
+      <c r="L71" s="91" t="inlineStr">
         <f aca="false">IF(L$32="","",L$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M71" s="92" t="inlineStr">
+      <c r="M71" s="91" t="inlineStr">
         <f aca="false">IF(M$32="","",M$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N71" s="92" t="inlineStr">
+      <c r="N71" s="91" t="inlineStr">
         <f aca="false">IF(N$32="","",N$32)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O71" s="92" t="str">
+      <c r="O71" s="91" t="inlineStr">
         <f aca="false">IF(O$32="","",O$32)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="3"/>
@@ -4639,67 +4677,67 @@
     <row r="72" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="106"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="107"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="106"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="89" t="n">
+      <c r="C73" s="88" t="n">
         <v>51</v>
       </c>
-      <c r="D73" s="90" t="s">
+      <c r="D73" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="91" t="str">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <v/>
+      </c>
+      <c r="G73" s="91" t="str">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <v/>
+      </c>
+      <c r="H73" s="91" t="str">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <v/>
+      </c>
+      <c r="I73" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E73" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" s="92" t="str">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G73" s="92" t="str">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
-      </c>
-      <c r="H73" s="92" t="str">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I73" s="92" t="n">
+      <c r="J73" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J73" s="92" t="n">
+      <c r="K73" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K73" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L73" s="92" t="str">
+      <c r="L73" s="91" t="str">
         <f aca="false">IF(L$28="","",L$28)</f>
         <v/>
       </c>
-      <c r="M73" s="92" t="n">
+      <c r="M73" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N73" s="92" t="str">
+      <c r="N73" s="91" t="str">
         <f aca="false">IF(N$28="","",N$28)</f>
         <v/>
       </c>
-      <c r="O73" s="92" t="str">
+      <c r="O73" s="91" t="str">
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
@@ -4709,60 +4747,62 @@
     <row r="74" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="89" t="n">
+      <c r="C74" s="88" t="n">
         <v>52</v>
       </c>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G74" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H74" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I74" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E74" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G74" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H74" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I74" s="92" t="n">
+      <c r="J74" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J74" s="92" t="n">
+      <c r="K74" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K74" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L74" s="92" t="inlineStr">
+      <c r="L74" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M74" s="92" t="n">
+      <c r="M74" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N74" s="92" t="inlineStr">
+      <c r="N74" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O74" s="92" t="str">
+      <c r="O74" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P74" s="14"/>
       <c r="Q74" s="3"/>
@@ -4770,60 +4810,62 @@
     <row r="75" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="89" t="n">
+      <c r="C75" s="88" t="n">
         <v>53</v>
       </c>
-      <c r="D75" s="90" t="s">
+      <c r="D75" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G75" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H75" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I75" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E75" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G75" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H75" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I75" s="92" t="n">
+      <c r="J75" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J75" s="92" t="n">
+      <c r="K75" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K75" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L75" s="92" t="inlineStr">
+      <c r="L75" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M75" s="92" t="n">
+      <c r="M75" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N75" s="92" t="inlineStr">
+      <c r="N75" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O75" s="92" t="str">
+      <c r="O75" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P75" s="14"/>
       <c r="Q75" s="3"/>
@@ -4831,60 +4873,62 @@
     <row r="76" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="89" t="n">
+      <c r="C76" s="88" t="n">
         <v>54</v>
       </c>
-      <c r="D76" s="90" t="s">
+      <c r="D76" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G76" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H76" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I76" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E76" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G76" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H76" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I76" s="92" t="n">
+      <c r="J76" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J76" s="92" t="n">
+      <c r="K76" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K76" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L76" s="92" t="inlineStr">
+      <c r="L76" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M76" s="92" t="n">
+      <c r="M76" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N76" s="92" t="inlineStr">
+      <c r="N76" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O76" s="92" t="str">
+      <c r="O76" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="43"/>
@@ -4892,68 +4936,68 @@
     <row r="77" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="110"/>
-      <c r="O77" s="110"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="109"/>
+      <c r="O77" s="109"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="89" t="n">
+      <c r="C78" s="88" t="n">
         <v>56</v>
       </c>
-      <c r="D78" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="F78" s="92" t="str">
+      <c r="D78" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="91" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
         <v/>
       </c>
-      <c r="G78" s="92" t="str">
+      <c r="G78" s="91" t="str">
         <f aca="false">IF(G$28="","",G$28)</f>
         <v/>
       </c>
-      <c r="H78" s="92" t="n">
+      <c r="H78" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I78" s="92" t="str">
+      <c r="I78" s="91" t="str">
         <f aca="false">IF(I$28="","",I$28)</f>
         <v/>
       </c>
-      <c r="J78" s="92" t="str">
+      <c r="J78" s="91" t="str">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v/>
       </c>
-      <c r="K78" s="92" t="str">
+      <c r="K78" s="91" t="str">
         <f aca="false">IF(K$28="","",K$28)</f>
         <v/>
       </c>
-      <c r="L78" s="92" t="n">
+      <c r="L78" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M78" s="92" t="n">
+      <c r="M78" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N78" s="92" t="str">
+      <c r="N78" s="91" t="str">
         <f aca="false">IF(N$28="","",N$28)</f>
         <v/>
       </c>
-      <c r="O78" s="92" t="str">
+      <c r="O78" s="91" t="str">
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
@@ -4963,63 +5007,65 @@
     <row r="79" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="89" t="n">
+      <c r="C79" s="88" t="n">
         <v>57</v>
       </c>
-      <c r="D79" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="92" t="inlineStr">
+      <c r="D79" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G79" s="92" t="inlineStr">
+      <c r="G79" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H79" s="92" t="n">
+      <c r="H79" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I79" s="92" t="inlineStr">
+      <c r="I79" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J79" s="92" t="inlineStr">
+      <c r="J79" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K79" s="92" t="inlineStr">
+      <c r="K79" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L79" s="92" t="n">
+      <c r="L79" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M79" s="92" t="n">
+      <c r="M79" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N79" s="92" t="inlineStr">
+      <c r="N79" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O79" s="92" t="str">
+      <c r="O79" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="3"/>
@@ -5027,63 +5073,65 @@
     <row r="80" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="89" t="n">
+      <c r="C80" s="88" t="n">
         <v>58</v>
       </c>
-      <c r="D80" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="92" t="inlineStr">
+      <c r="D80" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G80" s="92" t="inlineStr">
+      <c r="G80" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H80" s="92" t="n">
+      <c r="H80" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I80" s="92" t="inlineStr">
+      <c r="I80" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J80" s="92" t="inlineStr">
+      <c r="J80" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K80" s="92" t="inlineStr">
+      <c r="K80" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L80" s="92" t="n">
+      <c r="L80" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M80" s="92" t="n">
+      <c r="M80" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N80" s="92" t="inlineStr">
+      <c r="N80" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O80" s="92" t="str">
+      <c r="O80" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="3"/>
@@ -5091,63 +5139,65 @@
     <row r="81" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="89" t="n">
+      <c r="C81" s="88" t="n">
         <v>59</v>
       </c>
-      <c r="D81" s="90" t="s">
+      <c r="D81" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="92" t="inlineStr">
+      <c r="F81" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G81" s="92" t="inlineStr">
+      <c r="G81" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H81" s="92" t="n">
+      <c r="H81" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I81" s="92" t="inlineStr">
+      <c r="I81" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J81" s="92" t="inlineStr">
+      <c r="J81" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K81" s="92" t="inlineStr">
+      <c r="K81" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L81" s="92" t="n">
+      <c r="L81" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M81" s="92" t="n">
+      <c r="M81" s="91" t="n">
         <v>100</v>
       </c>
-      <c r="N81" s="92" t="inlineStr">
+      <c r="N81" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O81" s="92" t="str">
+      <c r="O81" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="3"/>
@@ -5155,68 +5205,68 @@
     <row r="82" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="98"/>
-      <c r="J82" s="99"/>
-      <c r="K82" s="98"/>
-      <c r="L82" s="96"/>
-      <c r="M82" s="97"/>
-      <c r="N82" s="98"/>
-      <c r="O82" s="98"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="97"/>
       <c r="P82" s="14"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="89" t="n">
+      <c r="C83" s="88" t="n">
         <v>61</v>
       </c>
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="91" t="str">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <v/>
+      </c>
+      <c r="G83" s="91" t="str">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <v/>
+      </c>
+      <c r="H83" s="91" t="str">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <v/>
+      </c>
+      <c r="I83" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E83" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="92" t="str">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G83" s="92" t="str">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
-      </c>
-      <c r="H83" s="92" t="str">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I83" s="92" t="n">
+      <c r="J83" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J83" s="92" t="n">
+      <c r="K83" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K83" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L83" s="92" t="str">
+      <c r="L83" s="91" t="str">
         <f aca="false">IF(L$28="","",L$28)</f>
         <v/>
       </c>
-      <c r="M83" s="92" t="str">
+      <c r="M83" s="91" t="str">
         <f aca="false">IF(M$28="","",M$28)</f>
         <v/>
       </c>
-      <c r="N83" s="92" t="str">
+      <c r="N83" s="91" t="str">
         <f aca="false">IF(N$28="","",N$28)</f>
         <v/>
       </c>
-      <c r="O83" s="92" t="str">
+      <c r="O83" s="91" t="str">
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
@@ -5226,63 +5276,65 @@
     <row r="84" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="89" t="n">
+      <c r="C84" s="88" t="n">
         <v>62</v>
       </c>
-      <c r="D84" s="90" t="s">
+      <c r="D84" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G84" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H84" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I84" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E84" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G84" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H84" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I84" s="92" t="n">
+      <c r="J84" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J84" s="92" t="n">
+      <c r="K84" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K84" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L84" s="92" t="inlineStr">
+      <c r="L84" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M84" s="92" t="inlineStr">
+      <c r="M84" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N84" s="92" t="inlineStr">
+      <c r="N84" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O84" s="92" t="str">
+      <c r="O84" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="3"/>
@@ -5290,63 +5342,65 @@
     <row r="85" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="89" t="n">
+      <c r="C85" s="88" t="n">
         <v>63</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G85" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H85" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I85" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E85" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G85" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H85" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I85" s="92" t="n">
+      <c r="J85" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J85" s="92" t="n">
+      <c r="K85" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K85" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L85" s="92" t="inlineStr">
+      <c r="L85" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M85" s="92" t="inlineStr">
+      <c r="M85" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N85" s="92" t="inlineStr">
+      <c r="N85" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O85" s="92" t="str">
+      <c r="O85" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P85" s="14"/>
       <c r="Q85" s="3"/>
@@ -5354,63 +5408,65 @@
     <row r="86" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="89" t="n">
+      <c r="C86" s="88" t="n">
         <v>64</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="91" t="inlineStr">
+        <f aca="false">IF(F$28="","",F$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G86" s="91" t="inlineStr">
+        <f aca="false">IF(G$28="","",G$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H86" s="91" t="inlineStr">
+        <f aca="false">IF(H$28="","",H$28)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I86" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="E86" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" s="92" t="inlineStr">
-        <f aca="false">IF(F$28="","",F$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G86" s="92" t="inlineStr">
-        <f aca="false">IF(G$28="","",G$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H86" s="92" t="inlineStr">
-        <f aca="false">IF(H$28="","",H$28)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I86" s="92" t="n">
+      <c r="J86" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="J86" s="92" t="n">
+      <c r="K86" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="K86" s="92" t="n">
-        <v>75</v>
-      </c>
-      <c r="L86" s="92" t="inlineStr">
+      <c r="L86" s="91" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M86" s="92" t="inlineStr">
+      <c r="M86" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N86" s="92" t="inlineStr">
+      <c r="N86" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O86" s="92" t="str">
+      <c r="O86" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P86" s="14"/>
       <c r="Q86" s="43"/>
@@ -5418,69 +5474,69 @@
     <row r="87" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="110"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="111"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="108"/>
-      <c r="M87" s="109"/>
-      <c r="N87" s="110"/>
-      <c r="O87" s="110"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="109"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="108"/>
+      <c r="N87" s="109"/>
+      <c r="O87" s="109"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="8"/>
-      <c r="C88" s="89" t="n">
+      <c r="C88" s="88" t="n">
         <v>66</v>
       </c>
-      <c r="D88" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E88" s="91" t="s">
+      <c r="D88" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="92" t="str">
+      <c r="E88" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="91" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
         <v/>
       </c>
-      <c r="G88" s="92" t="str">
+      <c r="G88" s="91" t="str">
         <f aca="false">IF(G$28="","",G$28)</f>
         <v/>
       </c>
-      <c r="H88" s="92" t="n">
+      <c r="H88" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I88" s="92" t="str">
+      <c r="I88" s="91" t="str">
         <f aca="false">IF(I$28="","",I$28)</f>
         <v/>
       </c>
-      <c r="J88" s="92" t="str">
+      <c r="J88" s="91" t="str">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v/>
       </c>
-      <c r="K88" s="92" t="str">
+      <c r="K88" s="91" t="str">
         <f aca="false">IF(K$28="","",K$28)</f>
         <v/>
       </c>
-      <c r="L88" s="92" t="n">
+      <c r="L88" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M88" s="92" t="str">
+      <c r="M88" s="91" t="str">
         <f aca="false">IF(M$28="","",M$28)</f>
         <v/>
       </c>
-      <c r="N88" s="92" t="str">
+      <c r="N88" s="91" t="str">
         <f aca="false">IF(N$28="","",N$28)</f>
         <v/>
       </c>
-      <c r="O88" s="92" t="str">
+      <c r="O88" s="91" t="str">
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
@@ -5490,66 +5546,68 @@
     <row r="89" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="89" t="n">
+      <c r="C89" s="88" t="n">
         <v>67</v>
       </c>
-      <c r="D89" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="F89" s="92" t="inlineStr">
+      <c r="D89" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G89" s="92" t="inlineStr">
+      <c r="G89" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H89" s="92" t="n">
+      <c r="H89" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I89" s="92" t="inlineStr">
+      <c r="I89" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J89" s="92" t="inlineStr">
+      <c r="J89" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K89" s="92" t="inlineStr">
+      <c r="K89" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L89" s="92" t="n">
+      <c r="L89" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M89" s="92" t="inlineStr">
+      <c r="M89" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N89" s="92" t="inlineStr">
+      <c r="N89" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O89" s="92" t="str">
+      <c r="O89" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P89" s="14"/>
       <c r="Q89" s="3"/>
@@ -5557,66 +5615,68 @@
     <row r="90" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="8"/>
-      <c r="C90" s="89" t="n">
+      <c r="C90" s="88" t="n">
         <v>68</v>
       </c>
-      <c r="D90" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E90" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" s="92" t="inlineStr">
+      <c r="D90" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G90" s="92" t="inlineStr">
+      <c r="G90" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H90" s="92" t="n">
+      <c r="H90" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I90" s="92" t="inlineStr">
+      <c r="I90" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J90" s="92" t="inlineStr">
+      <c r="J90" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K90" s="92" t="inlineStr">
+      <c r="K90" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L90" s="92" t="n">
+      <c r="L90" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M90" s="92" t="inlineStr">
+      <c r="M90" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N90" s="92" t="inlineStr">
+      <c r="N90" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O90" s="92" t="str">
+      <c r="O90" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P90" s="14"/>
       <c r="Q90" s="3"/>
@@ -5624,66 +5684,68 @@
     <row r="91" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="89" t="n">
+      <c r="C91" s="88" t="n">
         <v>69</v>
       </c>
-      <c r="D91" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E91" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91" s="92" t="inlineStr">
+      <c r="D91" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="91" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G91" s="92" t="inlineStr">
+      <c r="G91" s="91" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H91" s="92" t="n">
+      <c r="H91" s="91" t="n">
         <v>75</v>
       </c>
-      <c r="I91" s="92" t="inlineStr">
+      <c r="I91" s="91" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J91" s="92" t="inlineStr">
+      <c r="J91" s="91" t="inlineStr">
         <f aca="false">IF(J$28="","",J$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K91" s="92" t="inlineStr">
+      <c r="K91" s="91" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L91" s="92" t="n">
+      <c r="L91" s="91" t="n">
         <v>25</v>
       </c>
-      <c r="M91" s="92" t="inlineStr">
+      <c r="M91" s="91" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N91" s="92" t="inlineStr">
+      <c r="N91" s="91" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O91" s="92" t="str">
+      <c r="O91" s="91" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P91" s="14"/>
       <c r="Q91" s="3"/>
@@ -5691,71 +5753,71 @@
     <row r="92" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="114"/>
-      <c r="H92" s="112"/>
-      <c r="I92" s="112"/>
-      <c r="J92" s="113"/>
-      <c r="K92" s="113"/>
-      <c r="L92" s="113"/>
-      <c r="M92" s="114"/>
-      <c r="N92" s="112"/>
-      <c r="O92" s="112"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="111"/>
+      <c r="F92" s="112"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="111"/>
+      <c r="I92" s="111"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="112"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="111"/>
+      <c r="O92" s="111"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="115" t="n">
+      <c r="C93" s="114" t="n">
         <v>71</v>
       </c>
-      <c r="D93" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F93" s="92" t="str">
+      <c r="D93" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="91" t="str">
         <f aca="false">IF(F$33="","",F$33)</f>
         <v/>
       </c>
-      <c r="G93" s="92" t="str">
+      <c r="G93" s="91" t="str">
         <f aca="false">IF(G$33="","",G$33)</f>
         <v/>
       </c>
-      <c r="H93" s="92" t="str">
+      <c r="H93" s="91" t="str">
         <f aca="false">IF(H$33="","",H$33)</f>
         <v/>
       </c>
-      <c r="I93" s="92" t="str">
+      <c r="I93" s="91" t="str">
         <f aca="false">IF(I$33="","",I$33)</f>
         <v/>
       </c>
-      <c r="J93" s="92" t="str">
+      <c r="J93" s="91" t="str">
         <f aca="false">IF(J$33="","",J$33)</f>
         <v/>
       </c>
-      <c r="K93" s="92" t="str">
+      <c r="K93" s="91" t="str">
         <f aca="false">IF(K$33="","",K$33)</f>
         <v/>
       </c>
-      <c r="L93" s="92" t="str">
+      <c r="L93" s="91" t="str">
         <f aca="false">IF(L$33="","",L$33)</f>
         <v/>
       </c>
-      <c r="M93" s="92" t="str">
+      <c r="M93" s="91" t="str">
         <f aca="false">IF(M$33="","",M$33)</f>
         <v/>
       </c>
-      <c r="N93" s="92" t="str">
+      <c r="N93" s="91" t="str">
         <f aca="false">IF(N$33="","",N$33)</f>
         <v/>
       </c>
-      <c r="O93" s="92" t="str">
+      <c r="O93" s="91" t="str">
         <f aca="false">IF(O$33="","",O$33)</f>
         <v/>
       </c>
@@ -5765,70 +5827,70 @@
     <row r="94" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1"/>
       <c r="B94" s="8"/>
-      <c r="C94" s="115" t="n">
+      <c r="C94" s="114" t="n">
         <v>72</v>
       </c>
-      <c r="D94" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="F94" s="92" t="inlineStr">
+      <c r="D94" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" s="91" t="inlineStr">
         <f aca="false">IF(F$33="","",F$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G94" s="92" t="inlineStr">
+      <c r="G94" s="91" t="inlineStr">
         <f aca="false">IF(G$33="","",G$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H94" s="92" t="inlineStr">
+      <c r="H94" s="91" t="inlineStr">
         <f aca="false">IF(H$33="","",H$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I94" s="92" t="inlineStr">
+      <c r="I94" s="91" t="inlineStr">
         <f aca="false">IF(I$33="","",I$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J94" s="92" t="inlineStr">
+      <c r="J94" s="91" t="inlineStr">
         <f aca="false">IF(J$33="","",J$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K94" s="92" t="inlineStr">
+      <c r="K94" s="91" t="inlineStr">
         <f aca="false">IF(K$33="","",K$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L94" s="92" t="inlineStr">
+      <c r="L94" s="91" t="inlineStr">
         <f aca="false">IF(L$33="","",L$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M94" s="92" t="inlineStr">
+      <c r="M94" s="91" t="inlineStr">
         <f aca="false">IF(M$33="","",M$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N94" s="92" t="inlineStr">
+      <c r="N94" s="91" t="inlineStr">
         <f aca="false">IF(N$33="","",N$33)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O94" s="92" t="inlineStr">
+      <c r="O94" s="91" t="inlineStr">
         <f aca="false">IF(O$33="","",O$33)</f>
         <is>
           <t/>
@@ -5840,71 +5902,71 @@
     <row r="95" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="98"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="99"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
-      <c r="O95" s="98"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="94"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="97"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="97"/>
+      <c r="N95" s="97"/>
+      <c r="O95" s="97"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="89" t="n">
+      <c r="C96" s="88" t="n">
         <v>81</v>
       </c>
-      <c r="D96" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E96" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="92" t="str">
+      <c r="D96" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="91" t="str">
         <f aca="false">IF(F$29="","",F$29)</f>
         <v/>
       </c>
-      <c r="G96" s="92" t="str">
+      <c r="G96" s="91" t="str">
         <f aca="false">IF(G$29="","",G$29)</f>
         <v/>
       </c>
-      <c r="H96" s="92" t="str">
+      <c r="H96" s="91" t="str">
         <f aca="false">IF(H$29="","",H$29)</f>
         <v/>
       </c>
-      <c r="I96" s="92" t="str">
+      <c r="I96" s="91" t="str">
         <f aca="false">IF(I$29="","",I$29)</f>
         <v/>
       </c>
-      <c r="J96" s="92" t="str">
+      <c r="J96" s="91" t="str">
         <f aca="false">IF(J$29="","",J$29)</f>
         <v/>
       </c>
-      <c r="K96" s="92" t="str">
+      <c r="K96" s="91" t="str">
         <f aca="false">IF(K$29="","",K$29)</f>
         <v/>
       </c>
-      <c r="L96" s="92" t="str">
+      <c r="L96" s="91" t="str">
         <f aca="false">IF(L$29="","",L$29)</f>
         <v/>
       </c>
-      <c r="M96" s="92" t="str">
+      <c r="M96" s="91" t="str">
         <f aca="false">IF(M$29="","",M$29)</f>
         <v/>
       </c>
-      <c r="N96" s="92" t="str">
+      <c r="N96" s="91" t="str">
         <f aca="false">IF(N$29="","",N$29)</f>
         <v/>
       </c>
-      <c r="O96" s="92" t="str">
+      <c r="O96" s="91" t="str">
         <f aca="false">IF(O$29="","",O$29)</f>
         <v/>
       </c>
@@ -5914,70 +5976,70 @@
     <row r="97" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="89" t="n">
+      <c r="C97" s="88" t="n">
         <v>82</v>
       </c>
-      <c r="D97" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F97" s="92" t="inlineStr">
+      <c r="D97" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="91" t="inlineStr">
         <f aca="false">IF(F$29="","",F$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G97" s="92" t="inlineStr">
+      <c r="G97" s="91" t="inlineStr">
         <f aca="false">IF(G$29="","",G$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H97" s="92" t="inlineStr">
+      <c r="H97" s="91" t="inlineStr">
         <f aca="false">IF(H$29="","",H$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I97" s="92" t="inlineStr">
+      <c r="I97" s="91" t="inlineStr">
         <f aca="false">IF(I$29="","",I$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J97" s="92" t="inlineStr">
+      <c r="J97" s="91" t="inlineStr">
         <f aca="false">IF(J$29="","",J$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K97" s="92" t="inlineStr">
+      <c r="K97" s="91" t="inlineStr">
         <f aca="false">IF(K$29="","",K$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L97" s="92" t="inlineStr">
+      <c r="L97" s="91" t="inlineStr">
         <f aca="false">IF(L$29="","",L$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M97" s="92" t="inlineStr">
+      <c r="M97" s="91" t="inlineStr">
         <f aca="false">IF(M$29="","",M$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N97" s="92" t="inlineStr">
+      <c r="N97" s="91" t="inlineStr">
         <f aca="false">IF(N$29="","",N$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O97" s="92" t="inlineStr">
+      <c r="O97" s="91" t="inlineStr">
         <f aca="false">IF(O$29="","",O$29)</f>
         <is>
           <t/>
@@ -5989,70 +6051,70 @@
     <row r="98" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="89" t="n">
+      <c r="C98" s="88" t="n">
         <v>83</v>
       </c>
-      <c r="D98" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E98" s="91" t="s">
+      <c r="D98" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F98" s="92" t="inlineStr">
+      <c r="E98" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="91" t="inlineStr">
         <f aca="false">IF(F$29="","",F$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G98" s="92" t="inlineStr">
+      <c r="G98" s="91" t="inlineStr">
         <f aca="false">IF(G$29="","",G$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H98" s="92" t="inlineStr">
+      <c r="H98" s="91" t="inlineStr">
         <f aca="false">IF(H$29="","",H$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I98" s="92" t="inlineStr">
+      <c r="I98" s="91" t="inlineStr">
         <f aca="false">IF(I$29="","",I$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J98" s="92" t="inlineStr">
+      <c r="J98" s="91" t="inlineStr">
         <f aca="false">IF(J$29="","",J$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K98" s="92" t="inlineStr">
+      <c r="K98" s="91" t="inlineStr">
         <f aca="false">IF(K$29="","",K$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L98" s="92" t="inlineStr">
+      <c r="L98" s="91" t="inlineStr">
         <f aca="false">IF(L$29="","",L$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M98" s="92" t="inlineStr">
+      <c r="M98" s="91" t="inlineStr">
         <f aca="false">IF(M$29="","",M$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N98" s="92" t="inlineStr">
+      <c r="N98" s="91" t="inlineStr">
         <f aca="false">IF(N$29="","",N$29)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O98" s="92" t="inlineStr">
+      <c r="O98" s="91" t="inlineStr">
         <f aca="false">IF(O$29="","",O$29)</f>
         <is>
           <t/>
@@ -6064,71 +6126,71 @@
     <row r="99" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="98"/>
-      <c r="I99" s="98"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="97"/>
-      <c r="N99" s="98"/>
-      <c r="O99" s="98"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="98"/>
+      <c r="K99" s="98"/>
+      <c r="L99" s="95"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="97"/>
+      <c r="O99" s="97"/>
       <c r="P99" s="14"/>
       <c r="Q99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="89" t="n">
+      <c r="C100" s="88" t="n">
         <v>85</v>
       </c>
-      <c r="D100" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F100" s="92" t="n">
+      <c r="D100" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="91" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
         <v>25</v>
       </c>
-      <c r="G100" s="92" t="str">
+      <c r="G100" s="91" t="str">
         <f aca="false">IF(G$27="","",G$27)</f>
         <v/>
       </c>
-      <c r="H100" s="92" t="str">
+      <c r="H100" s="91" t="str">
         <f aca="false">IF(H$27="","",H$27)</f>
         <v/>
       </c>
-      <c r="I100" s="92" t="str">
+      <c r="I100" s="91" t="str">
         <f aca="false">IF(I$27="","",I$27)</f>
         <v/>
       </c>
-      <c r="J100" s="92" t="str">
+      <c r="J100" s="91" t="str">
         <f aca="false">IF(J$27="","",J$27)</f>
         <v/>
       </c>
-      <c r="K100" s="92" t="str">
+      <c r="K100" s="91" t="str">
         <f aca="false">IF(K$27="","",K$27)</f>
         <v/>
       </c>
-      <c r="L100" s="92" t="str">
+      <c r="L100" s="91" t="str">
         <f aca="false">IF(L$27="","",L$27)</f>
         <v/>
       </c>
-      <c r="M100" s="92" t="str">
+      <c r="M100" s="91" t="str">
         <f aca="false">IF(M$27="","",M$27)</f>
         <v/>
       </c>
-      <c r="N100" s="92" t="n">
+      <c r="N100" s="91" t="n">
         <f aca="false">IF(N$27="","",N$27)</f>
         <v>25</v>
       </c>
-      <c r="O100" s="92" t="str">
+      <c r="O100" s="91" t="str">
         <f aca="false">IF(O$27="","",O$27)</f>
         <v/>
       </c>
@@ -6138,68 +6200,70 @@
     <row r="101" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="89" t="n">
+      <c r="C101" s="88" t="n">
         <v>86</v>
       </c>
-      <c r="D101" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F101" s="92" t="n">
+      <c r="D101" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" s="91" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
         <v>25</v>
       </c>
-      <c r="G101" s="92" t="inlineStr">
+      <c r="G101" s="91" t="inlineStr">
         <f aca="false">IF(G$27="","",G$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H101" s="92" t="inlineStr">
+      <c r="H101" s="91" t="inlineStr">
         <f aca="false">IF(H$27="","",H$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I101" s="92" t="inlineStr">
+      <c r="I101" s="91" t="inlineStr">
         <f aca="false">IF(I$27="","",I$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J101" s="92" t="inlineStr">
+      <c r="J101" s="91" t="inlineStr">
         <f aca="false">IF(J$27="","",J$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K101" s="92" t="inlineStr">
+      <c r="K101" s="91" t="inlineStr">
         <f aca="false">IF(K$27="","",K$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L101" s="92" t="inlineStr">
+      <c r="L101" s="91" t="inlineStr">
         <f aca="false">IF(L$27="","",L$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M101" s="92" t="inlineStr">
+      <c r="M101" s="91" t="inlineStr">
         <f aca="false">IF(M$27="","",M$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N101" s="92" t="n">
+      <c r="N101" s="91" t="n">
         <f aca="false">IF(N$27="","",N$27)</f>
         <v>25</v>
       </c>
-      <c r="O101" s="92" t="str">
+      <c r="O101" s="91" t="inlineStr">
         <f aca="false">IF(O$27="","",O$27)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P101" s="14"/>
       <c r="Q101" s="3"/>
@@ -6207,68 +6271,70 @@
     <row r="102" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="89" t="n">
+      <c r="C102" s="88" t="n">
         <v>87</v>
       </c>
-      <c r="D102" s="90" t="s">
+      <c r="D102" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="F102" s="92" t="n">
+      <c r="F102" s="91" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
         <v>25</v>
       </c>
-      <c r="G102" s="92" t="inlineStr">
+      <c r="G102" s="91" t="inlineStr">
         <f aca="false">IF(G$27="","",G$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H102" s="92" t="inlineStr">
+      <c r="H102" s="91" t="inlineStr">
         <f aca="false">IF(H$27="","",H$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I102" s="92" t="inlineStr">
+      <c r="I102" s="91" t="inlineStr">
         <f aca="false">IF(I$27="","",I$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J102" s="92" t="inlineStr">
+      <c r="J102" s="91" t="inlineStr">
         <f aca="false">IF(J$27="","",J$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K102" s="92" t="inlineStr">
+      <c r="K102" s="91" t="inlineStr">
         <f aca="false">IF(K$27="","",K$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L102" s="92" t="inlineStr">
+      <c r="L102" s="91" t="inlineStr">
         <f aca="false">IF(L$27="","",L$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M102" s="92" t="inlineStr">
+      <c r="M102" s="91" t="inlineStr">
         <f aca="false">IF(M$27="","",M$27)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N102" s="92" t="n">
+      <c r="N102" s="91" t="n">
         <f aca="false">IF(N$27="","",N$27)</f>
         <v>25</v>
       </c>
-      <c r="O102" s="92" t="str">
+      <c r="O102" s="91" t="inlineStr">
         <f aca="false">IF(O$27="","",O$27)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="P102" s="14"/>
       <c r="Q102" s="3"/>
@@ -6276,71 +6342,71 @@
     <row r="103" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="93"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="98"/>
-      <c r="I103" s="98"/>
-      <c r="J103" s="99"/>
-      <c r="K103" s="99"/>
-      <c r="L103" s="96"/>
-      <c r="M103" s="97"/>
-      <c r="N103" s="98"/>
-      <c r="O103" s="98"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="97"/>
+      <c r="J103" s="98"/>
+      <c r="K103" s="98"/>
+      <c r="L103" s="95"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="97"/>
+      <c r="O103" s="97"/>
       <c r="P103" s="14"/>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="89" t="n">
+      <c r="C104" s="88" t="n">
         <v>91</v>
       </c>
-      <c r="D104" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E104" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="92" t="str">
+      <c r="D104" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="91" t="str">
         <f aca="false">IF(F$30="","",F$30)</f>
         <v/>
       </c>
-      <c r="G104" s="92" t="str">
+      <c r="G104" s="91" t="str">
         <f aca="false">IF(G$30="","",G$30)</f>
         <v/>
       </c>
-      <c r="H104" s="92" t="str">
+      <c r="H104" s="91" t="str">
         <f aca="false">IF(H$30="","",H$30)</f>
         <v/>
       </c>
-      <c r="I104" s="92" t="str">
+      <c r="I104" s="91" t="str">
         <f aca="false">IF(I$30="","",I$30)</f>
         <v/>
       </c>
-      <c r="J104" s="92" t="str">
+      <c r="J104" s="91" t="str">
         <f aca="false">IF(J$30="","",J$30)</f>
         <v/>
       </c>
-      <c r="K104" s="92" t="str">
+      <c r="K104" s="91" t="str">
         <f aca="false">IF(K$30="","",K$30)</f>
         <v/>
       </c>
-      <c r="L104" s="92" t="str">
+      <c r="L104" s="91" t="str">
         <f aca="false">IF(L$30="","",L$30)</f>
         <v/>
       </c>
-      <c r="M104" s="92" t="str">
+      <c r="M104" s="91" t="str">
         <f aca="false">IF(M$30="","",M$30)</f>
         <v/>
       </c>
-      <c r="N104" s="92" t="str">
+      <c r="N104" s="91" t="str">
         <f aca="false">IF(N$30="","",N$30)</f>
         <v/>
       </c>
-      <c r="O104" s="92" t="str">
+      <c r="O104" s="91" t="str">
         <f aca="false">IF(O$30="","",O$30)</f>
         <v/>
       </c>
@@ -6350,70 +6416,70 @@
     <row r="105" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="89" t="n">
+      <c r="C105" s="88" t="n">
         <v>92</v>
       </c>
-      <c r="D105" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E105" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="F105" s="92" t="inlineStr">
+      <c r="D105" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E105" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="91" t="inlineStr">
         <f aca="false">IF(F$30="","",F$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G105" s="92" t="inlineStr">
+      <c r="G105" s="91" t="inlineStr">
         <f aca="false">IF(G$30="","",G$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H105" s="92" t="inlineStr">
+      <c r="H105" s="91" t="inlineStr">
         <f aca="false">IF(H$30="","",H$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I105" s="92" t="inlineStr">
+      <c r="I105" s="91" t="inlineStr">
         <f aca="false">IF(I$30="","",I$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J105" s="92" t="inlineStr">
+      <c r="J105" s="91" t="inlineStr">
         <f aca="false">IF(J$30="","",J$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K105" s="92" t="inlineStr">
+      <c r="K105" s="91" t="inlineStr">
         <f aca="false">IF(K$30="","",K$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L105" s="92" t="inlineStr">
+      <c r="L105" s="91" t="inlineStr">
         <f aca="false">IF(L$30="","",L$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M105" s="92" t="inlineStr">
+      <c r="M105" s="91" t="inlineStr">
         <f aca="false">IF(M$30="","",M$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N105" s="92" t="inlineStr">
+      <c r="N105" s="91" t="inlineStr">
         <f aca="false">IF(N$30="","",N$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O105" s="92" t="inlineStr">
+      <c r="O105" s="91" t="inlineStr">
         <f aca="false">IF(O$30="","",O$30)</f>
         <is>
           <t/>
@@ -6425,70 +6491,70 @@
     <row r="106" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1"/>
       <c r="B106" s="8"/>
-      <c r="C106" s="89" t="n">
+      <c r="C106" s="88" t="n">
         <v>93</v>
       </c>
-      <c r="D106" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="F106" s="92" t="inlineStr">
+      <c r="D106" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F106" s="91" t="inlineStr">
         <f aca="false">IF(F$30="","",F$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G106" s="92" t="inlineStr">
+      <c r="G106" s="91" t="inlineStr">
         <f aca="false">IF(G$30="","",G$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H106" s="92" t="inlineStr">
+      <c r="H106" s="91" t="inlineStr">
         <f aca="false">IF(H$30="","",H$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="I106" s="92" t="inlineStr">
+      <c r="I106" s="91" t="inlineStr">
         <f aca="false">IF(I$30="","",I$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="J106" s="92" t="inlineStr">
+      <c r="J106" s="91" t="inlineStr">
         <f aca="false">IF(J$30="","",J$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K106" s="92" t="inlineStr">
+      <c r="K106" s="91" t="inlineStr">
         <f aca="false">IF(K$30="","",K$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="L106" s="92" t="inlineStr">
+      <c r="L106" s="91" t="inlineStr">
         <f aca="false">IF(L$30="","",L$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="M106" s="92" t="inlineStr">
+      <c r="M106" s="91" t="inlineStr">
         <f aca="false">IF(M$30="","",M$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="N106" s="92" t="inlineStr">
+      <c r="N106" s="91" t="inlineStr">
         <f aca="false">IF(N$30="","",N$30)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="O106" s="92" t="inlineStr">
+      <c r="O106" s="91" t="inlineStr">
         <f aca="false">IF(O$30="","",O$30)</f>
         <is>
           <t/>
@@ -6500,71 +6566,71 @@
     <row r="107" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="100"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="98"/>
-      <c r="H107" s="98"/>
-      <c r="I107" s="98"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="99"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="98"/>
-      <c r="N107" s="98"/>
-      <c r="O107" s="98"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="100"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="97"/>
+      <c r="I107" s="97"/>
+      <c r="J107" s="98"/>
+      <c r="K107" s="98"/>
+      <c r="L107" s="95"/>
+      <c r="M107" s="97"/>
+      <c r="N107" s="97"/>
+      <c r="O107" s="97"/>
       <c r="P107" s="14"/>
       <c r="Q107" s="43"/>
     </row>
     <row r="108" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="89" t="n">
+      <c r="C108" s="88" t="n">
         <v>101</v>
       </c>
-      <c r="D108" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E108" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F108" s="92" t="str">
+      <c r="D108" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G108" s="92" t="str">
+      <c r="G108" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H108" s="92" t="str">
+      <c r="H108" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I108" s="92" t="str">
+      <c r="I108" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J108" s="92" t="str">
+      <c r="J108" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K108" s="92" t="str">
+      <c r="K108" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L108" s="92" t="str">
+      <c r="L108" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M108" s="92" t="str">
+      <c r="M108" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N108" s="92" t="str">
+      <c r="N108" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O108" s="92" t="str">
+      <c r="O108" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -6574,52 +6640,52 @@
     <row r="109" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E109" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F109" s="92" t="str">
+      <c r="C109" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G109" s="92" t="str">
+      <c r="G109" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H109" s="92" t="str">
+      <c r="H109" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I109" s="92" t="str">
+      <c r="I109" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J109" s="92" t="str">
+      <c r="J109" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K109" s="92" t="str">
+      <c r="K109" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L109" s="92" t="str">
+      <c r="L109" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M109" s="92" t="str">
+      <c r="M109" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N109" s="92" t="str">
+      <c r="N109" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O109" s="92" t="str">
+      <c r="O109" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -6629,52 +6695,52 @@
     <row r="110" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="89" t="n">
+      <c r="C110" s="88" t="n">
         <v>111</v>
       </c>
-      <c r="D110" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E110" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="92" t="str">
+      <c r="D110" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G110" s="92" t="str">
+      <c r="G110" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H110" s="92" t="str">
+      <c r="H110" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I110" s="92" t="str">
+      <c r="I110" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J110" s="92" t="str">
+      <c r="J110" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K110" s="92" t="str">
+      <c r="K110" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L110" s="92" t="str">
+      <c r="L110" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M110" s="92" t="str">
+      <c r="M110" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N110" s="92" t="str">
+      <c r="N110" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O110" s="92" t="str">
+      <c r="O110" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -6684,52 +6750,52 @@
     <row r="111" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1"/>
       <c r="B111" s="8"/>
-      <c r="C111" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F111" s="92" t="str">
+      <c r="C111" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G111" s="92" t="str">
+      <c r="G111" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H111" s="92" t="str">
+      <c r="H111" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I111" s="92" t="str">
+      <c r="I111" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J111" s="92" t="str">
+      <c r="J111" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K111" s="92" t="str">
+      <c r="K111" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L111" s="92" t="str">
+      <c r="L111" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M111" s="92" t="str">
+      <c r="M111" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N111" s="92" t="str">
+      <c r="N111" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O111" s="92" t="str">
+      <c r="O111" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -6739,52 +6805,52 @@
     <row r="112" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="89" t="n">
+      <c r="C112" s="88" t="n">
         <v>121</v>
       </c>
-      <c r="D112" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E112" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="92" t="str">
+      <c r="D112" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G112" s="92" t="str">
+      <c r="G112" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H112" s="92" t="str">
+      <c r="H112" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I112" s="92" t="str">
+      <c r="I112" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J112" s="92" t="str">
+      <c r="J112" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K112" s="92" t="str">
+      <c r="K112" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L112" s="92" t="str">
+      <c r="L112" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M112" s="92" t="str">
+      <c r="M112" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N112" s="92" t="str">
+      <c r="N112" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O112" s="92" t="str">
+      <c r="O112" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -6794,52 +6860,52 @@
     <row r="113" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E113" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="F113" s="92" t="str">
+      <c r="C113" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G113" s="92" t="str">
+      <c r="G113" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H113" s="92" t="str">
+      <c r="H113" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I113" s="92" t="str">
+      <c r="I113" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J113" s="92" t="str">
+      <c r="J113" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K113" s="92" t="str">
+      <c r="K113" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L113" s="92" t="str">
+      <c r="L113" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M113" s="92" t="str">
+      <c r="M113" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N113" s="92" t="str">
+      <c r="N113" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O113" s="92" t="str">
+      <c r="O113" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -6849,52 +6915,52 @@
     <row r="114" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="89" t="n">
+      <c r="C114" s="88" t="n">
         <v>131</v>
       </c>
-      <c r="D114" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E114" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F114" s="92" t="str">
+      <c r="D114" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F114" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G114" s="92" t="str">
+      <c r="G114" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H114" s="92" t="str">
+      <c r="H114" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I114" s="92" t="str">
+      <c r="I114" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J114" s="92" t="str">
+      <c r="J114" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K114" s="92" t="str">
+      <c r="K114" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L114" s="92" t="str">
+      <c r="L114" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M114" s="92" t="str">
+      <c r="M114" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N114" s="92" t="str">
+      <c r="N114" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O114" s="92" t="str">
+      <c r="O114" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -6904,52 +6970,52 @@
     <row r="115" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F115" s="92" t="str">
+      <c r="C115" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G115" s="92" t="str">
+      <c r="G115" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H115" s="92" t="str">
+      <c r="H115" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I115" s="92" t="str">
+      <c r="I115" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J115" s="92" t="str">
+      <c r="J115" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K115" s="92" t="str">
+      <c r="K115" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L115" s="92" t="str">
+      <c r="L115" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M115" s="92" t="str">
+      <c r="M115" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N115" s="92" t="str">
+      <c r="N115" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O115" s="92" t="str">
+      <c r="O115" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -6959,52 +7025,52 @@
     <row r="116" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="89" t="n">
+      <c r="C116" s="88" t="n">
         <v>141</v>
       </c>
-      <c r="D116" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="92" t="str">
+      <c r="D116" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G116" s="92" t="str">
+      <c r="G116" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H116" s="92" t="str">
+      <c r="H116" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I116" s="92" t="str">
+      <c r="I116" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J116" s="92" t="str">
+      <c r="J116" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K116" s="92" t="str">
+      <c r="K116" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L116" s="92" t="str">
+      <c r="L116" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M116" s="92" t="str">
+      <c r="M116" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N116" s="92" t="str">
+      <c r="N116" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O116" s="92" t="str">
+      <c r="O116" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7014,52 +7080,52 @@
     <row r="117" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F117" s="92" t="str">
+      <c r="C117" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G117" s="92" t="str">
+      <c r="G117" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H117" s="92" t="str">
+      <c r="H117" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I117" s="92" t="str">
+      <c r="I117" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J117" s="92" t="str">
+      <c r="J117" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K117" s="92" t="str">
+      <c r="K117" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L117" s="92" t="str">
+      <c r="L117" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M117" s="92" t="str">
+      <c r="M117" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N117" s="92" t="str">
+      <c r="N117" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O117" s="92" t="str">
+      <c r="O117" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7069,52 +7135,52 @@
     <row r="118" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="8"/>
-      <c r="C118" s="89" t="n">
+      <c r="C118" s="88" t="n">
         <v>151</v>
       </c>
-      <c r="D118" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E118" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="F118" s="92" t="str">
+      <c r="D118" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G118" s="92" t="str">
+      <c r="G118" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H118" s="92" t="str">
+      <c r="H118" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I118" s="92" t="str">
+      <c r="I118" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J118" s="92" t="str">
+      <c r="J118" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K118" s="92" t="str">
+      <c r="K118" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L118" s="92" t="str">
+      <c r="L118" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M118" s="92" t="str">
+      <c r="M118" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N118" s="92" t="str">
+      <c r="N118" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O118" s="92" t="str">
+      <c r="O118" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7124,52 +7190,52 @@
     <row r="119" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="F119" s="92" t="str">
+      <c r="C119" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G119" s="92" t="str">
+      <c r="G119" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H119" s="92" t="str">
+      <c r="H119" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I119" s="92" t="str">
+      <c r="I119" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J119" s="92" t="str">
+      <c r="J119" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K119" s="92" t="str">
+      <c r="K119" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L119" s="92" t="str">
+      <c r="L119" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M119" s="92" t="str">
+      <c r="M119" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N119" s="92" t="str">
+      <c r="N119" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O119" s="92" t="str">
+      <c r="O119" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7179,52 +7245,52 @@
     <row r="120" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="89" t="n">
+      <c r="C120" s="88" t="n">
         <v>161</v>
       </c>
-      <c r="D120" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E120" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" s="92" t="str">
+      <c r="D120" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F120" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G120" s="92" t="str">
+      <c r="G120" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H120" s="92" t="str">
+      <c r="H120" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I120" s="92" t="str">
+      <c r="I120" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J120" s="92" t="str">
+      <c r="J120" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K120" s="92" t="str">
+      <c r="K120" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L120" s="92" t="str">
+      <c r="L120" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M120" s="92" t="str">
+      <c r="M120" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N120" s="92" t="str">
+      <c r="N120" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O120" s="92" t="str">
+      <c r="O120" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7234,52 +7300,52 @@
     <row r="121" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D121" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E121" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" s="92" t="str">
+      <c r="C121" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G121" s="92" t="str">
+      <c r="G121" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H121" s="92" t="str">
+      <c r="H121" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I121" s="92" t="str">
+      <c r="I121" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J121" s="92" t="str">
+      <c r="J121" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K121" s="92" t="str">
+      <c r="K121" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L121" s="92" t="str">
+      <c r="L121" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M121" s="92" t="str">
+      <c r="M121" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N121" s="92" t="str">
+      <c r="N121" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O121" s="92" t="str">
+      <c r="O121" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7289,52 +7355,52 @@
     <row r="122" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="8"/>
-      <c r="C122" s="89" t="n">
+      <c r="C122" s="88" t="n">
         <v>171</v>
       </c>
-      <c r="D122" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E122" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F122" s="92" t="str">
+      <c r="D122" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G122" s="92" t="str">
+      <c r="G122" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H122" s="92" t="str">
+      <c r="H122" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I122" s="92" t="str">
+      <c r="I122" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J122" s="92" t="str">
+      <c r="J122" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K122" s="92" t="str">
+      <c r="K122" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L122" s="92" t="str">
+      <c r="L122" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M122" s="92" t="str">
+      <c r="M122" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N122" s="92" t="str">
+      <c r="N122" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O122" s="92" t="str">
+      <c r="O122" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7344,52 +7410,52 @@
     <row r="123" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="8"/>
-      <c r="C123" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E123" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="F123" s="92" t="str">
+      <c r="C123" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G123" s="92" t="str">
+      <c r="G123" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H123" s="92" t="str">
+      <c r="H123" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I123" s="92" t="str">
+      <c r="I123" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J123" s="92" t="str">
+      <c r="J123" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K123" s="92" t="str">
+      <c r="K123" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L123" s="92" t="str">
+      <c r="L123" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M123" s="92" t="str">
+      <c r="M123" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N123" s="92" t="str">
+      <c r="N123" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O123" s="92" t="str">
+      <c r="O123" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7399,52 +7465,52 @@
     <row r="124" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="8"/>
-      <c r="C124" s="89" t="n">
+      <c r="C124" s="88" t="n">
         <v>181</v>
       </c>
-      <c r="D124" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E124" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F124" s="92" t="str">
+      <c r="D124" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G124" s="92" t="str">
+      <c r="G124" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H124" s="92" t="str">
+      <c r="H124" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I124" s="92" t="str">
+      <c r="I124" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J124" s="92" t="str">
+      <c r="J124" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K124" s="92" t="str">
+      <c r="K124" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L124" s="92" t="str">
+      <c r="L124" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M124" s="92" t="str">
+      <c r="M124" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N124" s="92" t="str">
+      <c r="N124" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O124" s="92" t="str">
+      <c r="O124" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7454,52 +7520,52 @@
     <row r="125" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="B125" s="8"/>
-      <c r="C125" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E125" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F125" s="92" t="str">
+      <c r="C125" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G125" s="92" t="str">
+      <c r="G125" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H125" s="92" t="str">
+      <c r="H125" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I125" s="92" t="str">
+      <c r="I125" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J125" s="92" t="str">
+      <c r="J125" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K125" s="92" t="str">
+      <c r="K125" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L125" s="92" t="str">
+      <c r="L125" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M125" s="92" t="str">
+      <c r="M125" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N125" s="92" t="str">
+      <c r="N125" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O125" s="92" t="str">
+      <c r="O125" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7509,52 +7575,52 @@
     <row r="126" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="8"/>
-      <c r="C126" s="89" t="n">
+      <c r="C126" s="88" t="n">
         <v>191</v>
       </c>
-      <c r="D126" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E126" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F126" s="92" t="str">
+      <c r="D126" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F126" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G126" s="92" t="str">
+      <c r="G126" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H126" s="92" t="str">
+      <c r="H126" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I126" s="92" t="str">
+      <c r="I126" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J126" s="92" t="str">
+      <c r="J126" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K126" s="92" t="str">
+      <c r="K126" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L126" s="92" t="str">
+      <c r="L126" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M126" s="92" t="str">
+      <c r="M126" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N126" s="92" t="str">
+      <c r="N126" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O126" s="92" t="str">
+      <c r="O126" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7564,52 +7630,52 @@
     <row r="127" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="B127" s="8"/>
-      <c r="C127" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E127" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F127" s="92" t="str">
+      <c r="C127" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G127" s="92" t="str">
+      <c r="G127" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H127" s="92" t="str">
+      <c r="H127" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I127" s="92" t="str">
+      <c r="I127" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J127" s="92" t="str">
+      <c r="J127" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K127" s="92" t="str">
+      <c r="K127" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L127" s="92" t="str">
+      <c r="L127" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M127" s="92" t="str">
+      <c r="M127" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N127" s="92" t="str">
+      <c r="N127" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O127" s="92" t="str">
+      <c r="O127" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7619,52 +7685,52 @@
     <row r="128" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="8"/>
-      <c r="C128" s="89" t="n">
+      <c r="C128" s="88" t="n">
         <v>201</v>
       </c>
-      <c r="D128" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E128" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F128" s="92" t="str">
+      <c r="D128" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G128" s="92" t="str">
+      <c r="G128" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H128" s="92" t="str">
+      <c r="H128" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I128" s="92" t="str">
+      <c r="I128" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J128" s="92" t="str">
+      <c r="J128" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K128" s="92" t="str">
+      <c r="K128" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L128" s="92" t="str">
+      <c r="L128" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M128" s="92" t="str">
+      <c r="M128" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N128" s="92" t="str">
+      <c r="N128" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O128" s="92" t="str">
+      <c r="O128" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7674,52 +7740,52 @@
     <row r="129" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1"/>
       <c r="B129" s="8"/>
-      <c r="C129" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E129" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F129" s="92" t="str">
+      <c r="C129" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G129" s="92" t="str">
+      <c r="G129" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H129" s="92" t="str">
+      <c r="H129" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I129" s="92" t="str">
+      <c r="I129" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J129" s="92" t="str">
+      <c r="J129" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K129" s="92" t="str">
+      <c r="K129" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L129" s="92" t="str">
+      <c r="L129" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M129" s="92" t="str">
+      <c r="M129" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N129" s="92" t="str">
+      <c r="N129" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O129" s="92" t="str">
+      <c r="O129" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7729,52 +7795,52 @@
     <row r="130" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1"/>
       <c r="B130" s="8"/>
-      <c r="C130" s="89" t="n">
+      <c r="C130" s="88" t="n">
         <v>211</v>
       </c>
-      <c r="D130" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E130" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F130" s="92" t="str">
+      <c r="D130" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F130" s="91" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
         <v/>
       </c>
-      <c r="G130" s="92" t="str">
+      <c r="G130" s="91" t="str">
         <f aca="false">IF(G$25="","",G$25)</f>
         <v/>
       </c>
-      <c r="H130" s="92" t="str">
+      <c r="H130" s="91" t="str">
         <f aca="false">IF(H$25="","",H$25)</f>
         <v/>
       </c>
-      <c r="I130" s="92" t="str">
+      <c r="I130" s="91" t="str">
         <f aca="false">IF(I$25="","",I$25)</f>
         <v/>
       </c>
-      <c r="J130" s="92" t="str">
+      <c r="J130" s="91" t="str">
         <f aca="false">IF(J$25="","",J$25)</f>
         <v/>
       </c>
-      <c r="K130" s="92" t="str">
+      <c r="K130" s="91" t="str">
         <f aca="false">IF(K$25="","",K$25)</f>
         <v/>
       </c>
-      <c r="L130" s="92" t="str">
+      <c r="L130" s="91" t="str">
         <f aca="false">IF(L$25="","",L$25)</f>
         <v/>
       </c>
-      <c r="M130" s="92" t="str">
+      <c r="M130" s="91" t="str">
         <f aca="false">IF(M$25="","",M$25)</f>
         <v/>
       </c>
-      <c r="N130" s="92" t="str">
+      <c r="N130" s="91" t="str">
         <f aca="false">IF(N$25="","",N$25)</f>
         <v/>
       </c>
-      <c r="O130" s="92" t="str">
+      <c r="O130" s="91" t="str">
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
@@ -7784,52 +7850,52 @@
     <row r="131" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1"/>
       <c r="B131" s="8"/>
-      <c r="C131" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E131" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F131" s="92" t="str">
+      <c r="C131" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F131" s="91" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
         <v/>
       </c>
-      <c r="G131" s="92" t="str">
+      <c r="G131" s="91" t="str">
         <f aca="false">IF(G$26="","",G$26)</f>
         <v/>
       </c>
-      <c r="H131" s="92" t="str">
+      <c r="H131" s="91" t="str">
         <f aca="false">IF(H$26="","",H$26)</f>
         <v>Amber</v>
       </c>
-      <c r="I131" s="92" t="str">
+      <c r="I131" s="91" t="str">
         <f aca="false">IF(I$26="","",I$26)</f>
         <v>Lav</v>
       </c>
-      <c r="J131" s="92" t="str">
+      <c r="J131" s="91" t="str">
         <f aca="false">IF(J$26="","",J$26)</f>
         <v>Lav</v>
       </c>
-      <c r="K131" s="92" t="str">
+      <c r="K131" s="91" t="str">
         <f aca="false">IF(K$26="","",K$26)</f>
         <v>Lav</v>
       </c>
-      <c r="L131" s="92" t="str">
+      <c r="L131" s="91" t="str">
         <f aca="false">IF(L$26="","",L$26)</f>
         <v>Orange</v>
       </c>
-      <c r="M131" s="92" t="str">
+      <c r="M131" s="91" t="str">
         <f aca="false">IF(M$26="","",M$26)</f>
         <v>Orange</v>
       </c>
-      <c r="N131" s="92" t="str">
+      <c r="N131" s="91" t="str">
         <f aca="false">IF(N$26="","",N$26)</f>
         <v/>
       </c>
-      <c r="O131" s="92" t="str">
+      <c r="O131" s="91" t="str">
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
@@ -7839,71 +7905,71 @@
     <row r="132" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1"/>
       <c r="B132" s="8"/>
-      <c r="C132" s="117"/>
-      <c r="D132" s="118"/>
-      <c r="E132" s="118"/>
-      <c r="F132" s="119"/>
-      <c r="G132" s="120"/>
-      <c r="H132" s="121"/>
-      <c r="I132" s="121"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="122"/>
-      <c r="L132" s="119"/>
-      <c r="M132" s="120"/>
-      <c r="N132" s="121"/>
-      <c r="O132" s="121"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="117"/>
+      <c r="E132" s="117"/>
+      <c r="F132" s="118"/>
+      <c r="G132" s="119"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="120"/>
+      <c r="J132" s="121"/>
+      <c r="K132" s="121"/>
+      <c r="L132" s="118"/>
+      <c r="M132" s="119"/>
+      <c r="N132" s="120"/>
+      <c r="O132" s="120"/>
       <c r="P132" s="14"/>
       <c r="Q132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1"/>
       <c r="B133" s="8"/>
-      <c r="C133" s="123" t="n">
+      <c r="C133" s="122" t="n">
         <v>241</v>
       </c>
-      <c r="D133" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="E133" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F133" s="125" t="str">
+      <c r="D133" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="E133" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="124" t="str">
         <f aca="false">IF(F$34="","",F$34)</f>
         <v/>
       </c>
-      <c r="G133" s="125" t="str">
+      <c r="G133" s="124" t="str">
         <f aca="false">IF(G$34="","",G$34)</f>
         <v/>
       </c>
-      <c r="H133" s="125" t="n">
+      <c r="H133" s="124" t="n">
         <f aca="false">IF(H$34="","",H$34)</f>
         <v>100</v>
       </c>
-      <c r="I133" s="125" t="n">
+      <c r="I133" s="124" t="n">
         <f aca="false">IF(I$34="","",I$34)</f>
         <v>100</v>
       </c>
-      <c r="J133" s="125" t="n">
+      <c r="J133" s="124" t="n">
         <f aca="false">IF(J$34="","",J$34)</f>
         <v>100</v>
       </c>
-      <c r="K133" s="125" t="n">
+      <c r="K133" s="124" t="n">
         <f aca="false">IF(K$34="","",K$34)</f>
         <v>100</v>
       </c>
-      <c r="L133" s="125" t="n">
+      <c r="L133" s="124" t="n">
         <f aca="false">IF(L$34="","",L$34)</f>
         <v>100</v>
       </c>
-      <c r="M133" s="125" t="n">
+      <c r="M133" s="124" t="n">
         <f aca="false">IF(M$34="","",M$34)</f>
         <v>100</v>
       </c>
-      <c r="N133" s="125" t="str">
+      <c r="N133" s="124" t="str">
         <f aca="false">IF(N$34="","",N$34)</f>
         <v/>
       </c>
-      <c r="O133" s="125" t="str">
+      <c r="O133" s="124" t="str">
         <f aca="false">IF(O$34="","",O$34)</f>
         <v/>
       </c>
@@ -7913,52 +7979,52 @@
     <row r="134" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="92" t="str">
+      <c r="C134" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="91" t="str">
         <f aca="false">IF(F$35="","",F$35)</f>
         <v/>
       </c>
-      <c r="G134" s="92" t="str">
+      <c r="G134" s="91" t="str">
         <f aca="false">IF(G$35="","",G$35)</f>
         <v/>
       </c>
-      <c r="H134" s="92" t="str">
+      <c r="H134" s="91" t="str">
         <f aca="false">IF(H$35="","",H$35)</f>
         <v>Amber</v>
       </c>
-      <c r="I134" s="92" t="str">
+      <c r="I134" s="91" t="str">
         <f aca="false">IF(I$35="","",I$35)</f>
         <v>Lav</v>
       </c>
-      <c r="J134" s="92" t="str">
+      <c r="J134" s="91" t="str">
         <f aca="false">IF(J$35="","",J$35)</f>
         <v>Lav</v>
       </c>
-      <c r="K134" s="92" t="str">
+      <c r="K134" s="91" t="str">
         <f aca="false">IF(K$35="","",K$35)</f>
         <v>Lav</v>
       </c>
-      <c r="L134" s="92" t="str">
+      <c r="L134" s="91" t="str">
         <f aca="false">IF(L$35="","",L$35)</f>
         <v>Orange</v>
       </c>
-      <c r="M134" s="92" t="str">
+      <c r="M134" s="91" t="str">
         <f aca="false">IF(M$35="","",M$35)</f>
         <v>Orange</v>
       </c>
-      <c r="N134" s="92" t="str">
+      <c r="N134" s="91" t="str">
         <f aca="false">IF(N$35="","",N$35)</f>
         <v/>
       </c>
-      <c r="O134" s="92" t="str">
+      <c r="O134" s="91" t="str">
         <f aca="false">IF(O$35="","",O$35)</f>
         <v/>
       </c>
@@ -7968,28 +8034,28 @@
     <row r="135" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="126"/>
-      <c r="D135" s="126"/>
-      <c r="E135" s="126"/>
-      <c r="F135" s="126"/>
-      <c r="G135" s="126"/>
-      <c r="H135" s="126"/>
-      <c r="I135" s="126"/>
-      <c r="J135" s="126"/>
-      <c r="K135" s="126"/>
-      <c r="L135" s="126"/>
-      <c r="M135" s="126"/>
-      <c r="N135" s="126"/>
-      <c r="O135" s="126"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="125"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="125"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="125"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="125"/>
+      <c r="L135" s="125"/>
+      <c r="M135" s="125"/>
+      <c r="N135" s="125"/>
+      <c r="O135" s="125"/>
       <c r="P135" s="14"/>
       <c r="Q135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
       <c r="B136" s="8"/>
-      <c r="C136" s="127"/>
+      <c r="C136" s="126"/>
       <c r="D136" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="35"/>
@@ -8008,41 +8074,41 @@
     <row r="137" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
       <c r="B137" s="8"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="E137" s="128"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="128"/>
-      <c r="H137" s="128"/>
-      <c r="I137" s="128"/>
-      <c r="J137" s="128"/>
-      <c r="K137" s="128"/>
-      <c r="L137" s="128"/>
-      <c r="M137" s="128"/>
-      <c r="N137" s="128"/>
-      <c r="O137" s="128"/>
+      <c r="C137" s="126"/>
+      <c r="D137" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="127"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="127"/>
+      <c r="L137" s="127"/>
+      <c r="M137" s="127"/>
+      <c r="N137" s="127"/>
+      <c r="O137" s="127"/>
       <c r="P137" s="14"/>
       <c r="Q137" s="43"/>
     </row>
     <row r="138" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="130"/>
-      <c r="D138" s="130"/>
-      <c r="E138" s="130"/>
-      <c r="F138" s="130"/>
-      <c r="G138" s="130"/>
-      <c r="H138" s="130"/>
-      <c r="I138" s="130"/>
-      <c r="J138" s="131"/>
-      <c r="K138" s="130"/>
-      <c r="L138" s="130"/>
-      <c r="M138" s="130"/>
-      <c r="N138" s="130"/>
-      <c r="O138" s="130"/>
-      <c r="P138" s="132"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="129"/>
+      <c r="E138" s="129"/>
+      <c r="F138" s="129"/>
+      <c r="G138" s="129"/>
+      <c r="H138" s="129"/>
+      <c r="I138" s="129"/>
+      <c r="J138" s="130"/>
+      <c r="K138" s="129"/>
+      <c r="L138" s="129"/>
+      <c r="M138" s="129"/>
+      <c r="N138" s="129"/>
+      <c r="O138" s="129"/>
+      <c r="P138" s="131"/>
       <c r="Q138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8065,7 +8131,7 @@
       <c r="Q139" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="C4:D4"/>
@@ -8089,6 +8155,7 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D19:J19"/>
     <mergeCell ref="C20:O20"/>
     <mergeCell ref="C37:O37"/>
     <mergeCell ref="C136:C137"/>
